--- a/public/inventario.xlsx
+++ b/public/inventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosalegria/Desktop/informe Telefonica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosalegria/Desktop/Aplicaciones Carlos Alegria/PORTAL_SOMYL_2026/modulo_logistica/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E81802-4B20-D547-BFC2-5F6219084B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E11FF-D4D2-F84D-96AB-FB66B9D2BC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" xr2:uid="{C5E3BA87-039D-EC49-8A7D-F58DA0CE356F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" xr2:uid="{C5E3BA87-039D-EC49-8A7D-F58DA0CE356F}"/>
   </bookViews>
   <sheets>
     <sheet name="MAESTRO" sheetId="1" r:id="rId1"/>
@@ -677,10 +677,10 @@
   <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="J379" sqref="J379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8264,7 +8264,7 @@
         <v>8</v>
       </c>
       <c r="I402" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">

--- a/public/inventario.xlsx
+++ b/public/inventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosalegria/Desktop/Aplicaciones Carlos Alegria/PORTAL_SOMYL_2026/modulo_logistica/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A583998-261F-4327-8E7C-48BD00958B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB6FD7-FA18-DF4E-9CB5-493EEB415983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5E3BA87-039D-EC49-8A7D-F58DA0CE356F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{C5E3BA87-039D-EC49-8A7D-F58DA0CE356F}"/>
   </bookViews>
   <sheets>
     <sheet name="MAESTRO" sheetId="1" r:id="rId1"/>
@@ -694,23 +694,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDE4FD5-9416-9D4B-BB0A-04D695859D33}">
   <dimension ref="A1:I727"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A706" workbookViewId="0">
-      <selection activeCell="A726" sqref="A726"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="1"/>
-    <col min="6" max="6" width="13.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" style="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -753,7 +753,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -767,7 +767,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -781,7 +781,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -795,7 +795,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -809,7 +809,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -823,7 +823,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -837,7 +837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -851,7 +851,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -865,7 +865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -879,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -907,7 +907,7 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -921,7 +921,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -935,7 +935,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -949,7 +949,7 @@
         <v>5861</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -963,7 +963,7 @@
         <v>5679</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -977,7 +977,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -991,7 +991,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>94422</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>81749</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>81749</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>2803.8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>2137.5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>2210.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>34999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>3064.2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1592.65</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>2227.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>1410.25</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>1354.5500000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1180.95</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>1145.95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1091.45</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>961.30000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>781.40000000000009</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>777.85</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>777.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>543.20000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>399.25</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>339.15000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>49</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>48</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>49</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>49</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>49</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>49</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>48</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>49</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>48</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>48</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>48</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>48</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>48</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>48</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>49</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>48</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>48</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>48</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>48</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>48</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>48</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>48</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>48</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>48</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>48</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>49</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>48</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>48</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>48</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>48</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>48</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>48</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>48</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>48</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>48</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>48</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>48</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>48</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>49</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>48</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>49</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>48</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>48</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>48</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>48</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>49</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>48</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>48</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>48</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>48</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>49</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>49</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>48</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>48</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>48</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>48</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>48</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>48</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>48</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>48</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>48</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>48</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>48</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>48</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>48</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>48</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>48</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>48</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>48</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>48</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>48</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>48</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>48</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>48</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>48</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>48</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>48</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>48</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>48</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>48</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>48</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>48</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>48</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>48</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>48</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>49</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>49</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>48</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>48</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>49</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>49</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>49</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>49</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>49</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>49</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>48</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>48</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>48</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>48</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>48</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>49</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>49</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>49</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>48</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>48</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>48</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>49</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>48</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>49</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>48</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>48</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>48</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>48</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>48</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>49</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>49</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>48</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>48</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>48</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>48</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>48</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>48</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>49</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>48</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>48</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>48</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>48</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>48</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>48</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>49</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>48</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>48</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>48</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>48</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>48</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>48</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>48</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>48</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>48</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>48</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>48</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>48</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>48</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>49</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>48</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>48</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>48</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>48</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>48</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>48</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>48</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>49</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>49</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>49</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>49</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>48</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>48</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>48</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>49</v>
       </c>
@@ -5783,11 +5783,11 @@
       <c r="D302" t="s">
         <v>68</v>
       </c>
-      <c r="E302" s="1">
+      <c r="G302" s="1">
         <v>430</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>49</v>
       </c>
@@ -5800,11 +5800,11 @@
       <c r="D303" t="s">
         <v>68</v>
       </c>
-      <c r="E303" s="1">
+      <c r="G303" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>49</v>
       </c>
@@ -5817,11 +5817,11 @@
       <c r="D304" t="s">
         <v>68</v>
       </c>
-      <c r="E304" s="1">
+      <c r="G304" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>49</v>
       </c>
@@ -5834,11 +5834,11 @@
       <c r="D305" t="s">
         <v>68</v>
       </c>
-      <c r="E305" s="1">
+      <c r="G305" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>49</v>
       </c>
@@ -5851,11 +5851,11 @@
       <c r="D306" t="s">
         <v>68</v>
       </c>
-      <c r="E306" s="1">
+      <c r="G306" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>49</v>
       </c>
@@ -5868,11 +5868,11 @@
       <c r="D307" t="s">
         <v>68</v>
       </c>
-      <c r="E307" s="1">
+      <c r="G307" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>49</v>
       </c>
@@ -5885,11 +5885,11 @@
       <c r="D308" t="s">
         <v>68</v>
       </c>
-      <c r="E308" s="1">
+      <c r="G308" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>49</v>
       </c>
@@ -5902,11 +5902,11 @@
       <c r="D309" t="s">
         <v>68</v>
       </c>
-      <c r="E309" s="1">
+      <c r="G309" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>49</v>
       </c>
@@ -5919,11 +5919,11 @@
       <c r="D310" t="s">
         <v>68</v>
       </c>
-      <c r="E310" s="1">
+      <c r="G310" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>49</v>
       </c>
@@ -5936,11 +5936,11 @@
       <c r="D311" t="s">
         <v>68</v>
       </c>
-      <c r="E311" s="1">
+      <c r="G311" s="1">
         <v>603</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>49</v>
       </c>
@@ -5953,11 +5953,11 @@
       <c r="D312" t="s">
         <v>68</v>
       </c>
-      <c r="E312" s="1">
+      <c r="G312" s="1">
         <v>768</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>49</v>
       </c>
@@ -5970,11 +5970,11 @@
       <c r="D313" t="s">
         <v>68</v>
       </c>
-      <c r="E313" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G313" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>49</v>
       </c>
@@ -5987,11 +5987,11 @@
       <c r="D314" t="s">
         <v>68</v>
       </c>
-      <c r="E314" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G314" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>49</v>
       </c>
@@ -6004,11 +6004,11 @@
       <c r="D315" t="s">
         <v>68</v>
       </c>
-      <c r="E315" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G315" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>49</v>
       </c>
@@ -6021,11 +6021,11 @@
       <c r="D316" t="s">
         <v>68</v>
       </c>
-      <c r="E316" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G316" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>49</v>
       </c>
@@ -6038,11 +6038,11 @@
       <c r="D317" t="s">
         <v>68</v>
       </c>
-      <c r="E317" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G317" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>49</v>
       </c>
@@ -6055,11 +6055,11 @@
       <c r="D318" t="s">
         <v>68</v>
       </c>
-      <c r="E318" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G318" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>49</v>
       </c>
@@ -6072,11 +6072,11 @@
       <c r="D319" t="s">
         <v>68</v>
       </c>
-      <c r="E319" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G319" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>49</v>
       </c>
@@ -6089,11 +6089,11 @@
       <c r="D320" t="s">
         <v>68</v>
       </c>
-      <c r="E320" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G320" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>49</v>
       </c>
@@ -6106,11 +6106,11 @@
       <c r="D321" t="s">
         <v>68</v>
       </c>
-      <c r="E321" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G321" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>49</v>
       </c>
@@ -6123,11 +6123,11 @@
       <c r="D322" t="s">
         <v>68</v>
       </c>
-      <c r="E322" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G322" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>49</v>
       </c>
@@ -6140,11 +6140,11 @@
       <c r="D323" t="s">
         <v>68</v>
       </c>
-      <c r="E323" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G323" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>49</v>
       </c>
@@ -6157,11 +6157,11 @@
       <c r="D324" t="s">
         <v>68</v>
       </c>
-      <c r="E324" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G324" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>49</v>
       </c>
@@ -6174,11 +6174,11 @@
       <c r="D325" t="s">
         <v>68</v>
       </c>
-      <c r="E325" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G325" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>49</v>
       </c>
@@ -6191,11 +6191,11 @@
       <c r="D326" t="s">
         <v>68</v>
       </c>
-      <c r="E326" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G326" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>49</v>
       </c>
@@ -6208,11 +6208,11 @@
       <c r="D327" t="s">
         <v>68</v>
       </c>
-      <c r="E327" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G327" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>49</v>
       </c>
@@ -6225,11 +6225,11 @@
       <c r="D328" t="s">
         <v>68</v>
       </c>
-      <c r="E328" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G328" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>49</v>
       </c>
@@ -6242,11 +6242,11 @@
       <c r="D329" t="s">
         <v>68</v>
       </c>
-      <c r="E329" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G329" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -6259,11 +6259,11 @@
       <c r="D330" t="s">
         <v>68</v>
       </c>
-      <c r="E330" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G330" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>49</v>
       </c>
@@ -6276,11 +6276,11 @@
       <c r="D331" t="s">
         <v>68</v>
       </c>
-      <c r="E331" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G331" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>49</v>
       </c>
@@ -6293,11 +6293,11 @@
       <c r="D332" t="s">
         <v>68</v>
       </c>
-      <c r="E332" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G332" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>49</v>
       </c>
@@ -6310,11 +6310,11 @@
       <c r="D333" t="s">
         <v>68</v>
       </c>
-      <c r="E333" s="1">
+      <c r="G333" s="1">
         <v>1749</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>49</v>
       </c>
@@ -6327,11 +6327,11 @@
       <c r="D334" t="s">
         <v>69</v>
       </c>
-      <c r="E334" s="1">
+      <c r="G334" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>49</v>
       </c>
@@ -6344,11 +6344,11 @@
       <c r="D335" t="s">
         <v>69</v>
       </c>
-      <c r="E335" s="1">
+      <c r="G335" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>49</v>
       </c>
@@ -6361,11 +6361,11 @@
       <c r="D336" t="s">
         <v>69</v>
       </c>
-      <c r="E336" s="1">
+      <c r="G336" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>49</v>
       </c>
@@ -6378,11 +6378,11 @@
       <c r="D337" t="s">
         <v>69</v>
       </c>
-      <c r="E337" s="1">
+      <c r="G337" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>49</v>
       </c>
@@ -6395,11 +6395,11 @@
       <c r="D338" t="s">
         <v>69</v>
       </c>
-      <c r="E338" s="1">
+      <c r="G338" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>49</v>
       </c>
@@ -6412,11 +6412,11 @@
       <c r="D339" t="s">
         <v>69</v>
       </c>
-      <c r="E339" s="1">
+      <c r="G339" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>49</v>
       </c>
@@ -6429,11 +6429,11 @@
       <c r="D340" t="s">
         <v>69</v>
       </c>
-      <c r="E340" s="1">
+      <c r="G340" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>49</v>
       </c>
@@ -6446,11 +6446,11 @@
       <c r="D341" t="s">
         <v>69</v>
       </c>
-      <c r="E341" s="1">
+      <c r="G341" s="1">
         <v>357</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>49</v>
       </c>
@@ -6463,11 +6463,11 @@
       <c r="D342" t="s">
         <v>69</v>
       </c>
-      <c r="E342" s="1">
+      <c r="G342" s="1">
         <v>1248</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>49</v>
       </c>
@@ -6480,11 +6480,11 @@
       <c r="D343" t="s">
         <v>69</v>
       </c>
-      <c r="E343" s="1">
+      <c r="G343" s="1">
         <v>2251</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>49</v>
       </c>
@@ -6497,11 +6497,11 @@
       <c r="D344" t="s">
         <v>69</v>
       </c>
-      <c r="E344" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G344" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>49</v>
       </c>
@@ -6514,11 +6514,11 @@
       <c r="D345" t="s">
         <v>69</v>
       </c>
-      <c r="E345" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G345" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>49</v>
       </c>
@@ -6531,11 +6531,11 @@
       <c r="D346" t="s">
         <v>69</v>
       </c>
-      <c r="E346" s="1">
+      <c r="G346" s="1">
         <v>784.2</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>49</v>
       </c>
@@ -6548,11 +6548,11 @@
       <c r="D347" t="s">
         <v>69</v>
       </c>
-      <c r="E347" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G347" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>49</v>
       </c>
@@ -6565,11 +6565,11 @@
       <c r="D348" t="s">
         <v>69</v>
       </c>
-      <c r="E348" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G348" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>49</v>
       </c>
@@ -6582,11 +6582,11 @@
       <c r="D349" t="s">
         <v>69</v>
       </c>
-      <c r="E349" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G349" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>48</v>
       </c>
@@ -6599,11 +6599,11 @@
       <c r="D350" t="s">
         <v>41</v>
       </c>
-      <c r="E350" s="1">
+      <c r="G350" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>48</v>
       </c>
@@ -6616,11 +6616,11 @@
       <c r="D351" t="s">
         <v>41</v>
       </c>
-      <c r="E351" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G351" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>48</v>
       </c>
@@ -6633,11 +6633,11 @@
       <c r="D352" t="s">
         <v>41</v>
       </c>
-      <c r="E352" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G352" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>48</v>
       </c>
@@ -6650,11 +6650,11 @@
       <c r="D353" t="s">
         <v>41</v>
       </c>
-      <c r="E353" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G353" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>48</v>
       </c>
@@ -6667,11 +6667,11 @@
       <c r="D354" t="s">
         <v>41</v>
       </c>
-      <c r="E354" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G354" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>48</v>
       </c>
@@ -6684,11 +6684,11 @@
       <c r="D355" t="s">
         <v>41</v>
       </c>
-      <c r="E355" s="1">
+      <c r="G355" s="1">
         <v>62.683417905038056</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>48</v>
       </c>
@@ -6701,11 +6701,11 @@
       <c r="D356" t="s">
         <v>41</v>
       </c>
-      <c r="E356" s="1">
+      <c r="G356" s="1">
         <v>29.785737586081911</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>48</v>
       </c>
@@ -6718,11 +6718,11 @@
       <c r="D357" t="s">
         <v>41</v>
       </c>
-      <c r="E357" s="1">
+      <c r="G357" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>48</v>
       </c>
@@ -6735,11 +6735,11 @@
       <c r="D358" t="s">
         <v>41</v>
       </c>
-      <c r="E358" s="1">
+      <c r="G358" s="1">
         <v>14.226023921710764</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>48</v>
       </c>
@@ -6752,11 +6752,11 @@
       <c r="D359" t="s">
         <v>41</v>
       </c>
-      <c r="E359" s="1">
+      <c r="G359" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>48</v>
       </c>
@@ -6769,11 +6769,11 @@
       <c r="D360" t="s">
         <v>41</v>
       </c>
-      <c r="E360" s="1">
+      <c r="G360" s="1">
         <v>72.611997100398696</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>48</v>
       </c>
@@ -6786,11 +6786,11 @@
       <c r="D361" t="s">
         <v>41</v>
       </c>
-      <c r="E361" s="1">
+      <c r="G361" s="1">
         <v>213.39035882566145</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>48</v>
       </c>
@@ -6803,11 +6803,11 @@
       <c r="D362" t="s">
         <v>41</v>
       </c>
-      <c r="E362" s="1">
+      <c r="G362" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>48</v>
       </c>
@@ -6820,11 +6820,11 @@
       <c r="D363" t="s">
         <v>41</v>
       </c>
-      <c r="E363" s="1">
+      <c r="G363" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>48</v>
       </c>
@@ -6837,11 +6837,11 @@
       <c r="D364" t="s">
         <v>41</v>
       </c>
-      <c r="E364" s="1">
+      <c r="G364" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>48</v>
       </c>
@@ -6854,11 +6854,11 @@
       <c r="D365" t="s">
         <v>41</v>
       </c>
-      <c r="E365" s="1">
+      <c r="G365" s="1">
         <v>466</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>48</v>
       </c>
@@ -6871,11 +6871,11 @@
       <c r="D366" t="s">
         <v>41</v>
       </c>
-      <c r="E366" s="1">
+      <c r="G366" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>48</v>
       </c>
@@ -6888,11 +6888,11 @@
       <c r="D367" t="s">
         <v>41</v>
       </c>
-      <c r="E367" s="1">
+      <c r="G367" s="1">
         <v>1570</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>48</v>
       </c>
@@ -6905,11 +6905,11 @@
       <c r="D368" t="s">
         <v>41</v>
       </c>
-      <c r="E368" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G368" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>48</v>
       </c>
@@ -6922,11 +6922,11 @@
       <c r="D369" t="s">
         <v>41</v>
       </c>
-      <c r="E369" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G369" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>48</v>
       </c>
@@ -6939,11 +6939,11 @@
       <c r="D370" t="s">
         <v>41</v>
       </c>
-      <c r="E370" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G370" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>48</v>
       </c>
@@ -6956,11 +6956,11 @@
       <c r="D371" t="s">
         <v>41</v>
       </c>
-      <c r="E371" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G371" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>48</v>
       </c>
@@ -6973,11 +6973,11 @@
       <c r="D372" t="s">
         <v>41</v>
       </c>
-      <c r="E372" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G372" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>48</v>
       </c>
@@ -6990,11 +6990,11 @@
       <c r="D373" t="s">
         <v>41</v>
       </c>
-      <c r="E373" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G373" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>48</v>
       </c>
@@ -7007,11 +7007,11 @@
       <c r="D374" t="s">
         <v>40</v>
       </c>
-      <c r="E374" s="1">
+      <c r="G374" s="1">
         <v>32.514421123899794</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>48</v>
       </c>
@@ -7024,11 +7024,11 @@
       <c r="D375" t="s">
         <v>40</v>
       </c>
-      <c r="E375" s="1">
+      <c r="G375" s="1">
         <v>38.426134055517934</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>48</v>
       </c>
@@ -7041,11 +7041,11 @@
       <c r="D376" t="s">
         <v>40</v>
       </c>
-      <c r="E376" s="1">
+      <c r="G376" s="1">
         <v>70.940555179417728</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>48</v>
       </c>
@@ -7058,11 +7058,11 @@
       <c r="D377" t="s">
         <v>40</v>
       </c>
-      <c r="E377" s="1">
+      <c r="G377" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>48</v>
       </c>
@@ -7075,11 +7075,11 @@
       <c r="D378" t="s">
         <v>40</v>
       </c>
-      <c r="E378" s="1">
+      <c r="G378" s="1">
         <v>37.687169939065669</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>48</v>
       </c>
@@ -7092,11 +7092,11 @@
       <c r="D379" t="s">
         <v>40</v>
       </c>
-      <c r="E379" s="1">
+      <c r="G379" s="1">
         <v>319.23249830737979</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>48</v>
       </c>
@@ -7109,11 +7109,11 @@
       <c r="D380" t="s">
         <v>40</v>
       </c>
-      <c r="E380" s="1">
+      <c r="G380" s="1">
         <v>313.32078537576166</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>48</v>
       </c>
@@ -7126,11 +7126,11 @@
       <c r="D381" t="s">
         <v>40</v>
       </c>
-      <c r="E381" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G381" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>48</v>
       </c>
@@ -7143,11 +7143,11 @@
       <c r="D382" t="s">
         <v>40</v>
       </c>
-      <c r="E382" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G382" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>48</v>
       </c>
@@ -7160,11 +7160,11 @@
       <c r="D383" t="s">
         <v>40</v>
       </c>
-      <c r="E383" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G383" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>48</v>
       </c>
@@ -7177,11 +7177,11 @@
       <c r="D384" t="s">
         <v>40</v>
       </c>
-      <c r="E384" s="1">
+      <c r="G384" s="1">
         <v>1764</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>48</v>
       </c>
@@ -7194,11 +7194,11 @@
       <c r="D385" t="s">
         <v>40</v>
       </c>
-      <c r="E385" s="1">
+      <c r="G385" s="1">
         <v>3680</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>48</v>
       </c>
@@ -7211,11 +7211,11 @@
       <c r="D386" t="s">
         <v>40</v>
       </c>
-      <c r="E386" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G386" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>48</v>
       </c>
@@ -7228,11 +7228,11 @@
       <c r="D387" t="s">
         <v>40</v>
       </c>
-      <c r="E387" s="1">
+      <c r="G387" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>48</v>
       </c>
@@ -7245,11 +7245,11 @@
       <c r="D388" t="s">
         <v>40</v>
       </c>
-      <c r="E388" s="1">
+      <c r="G388" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>48</v>
       </c>
@@ -7262,11 +7262,11 @@
       <c r="D389" t="s">
         <v>40</v>
       </c>
-      <c r="E389" s="1">
+      <c r="G389" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>48</v>
       </c>
@@ -7279,11 +7279,11 @@
       <c r="D390" t="s">
         <v>40</v>
       </c>
-      <c r="E390" s="1">
+      <c r="G390" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>48</v>
       </c>
@@ -7296,11 +7296,11 @@
       <c r="D391" t="s">
         <v>38</v>
       </c>
-      <c r="E391" s="1">
+      <c r="G391" s="1">
         <v>53.806478559495083</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>48</v>
       </c>
@@ -7313,11 +7313,11 @@
       <c r="D392" t="s">
         <v>38</v>
       </c>
-      <c r="E392" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G392" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>48</v>
       </c>
@@ -7330,11 +7330,11 @@
       <c r="D393" t="s">
         <v>38</v>
       </c>
-      <c r="E393" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G393" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>48</v>
       </c>
@@ -7347,11 +7347,11 @@
       <c r="D394" t="s">
         <v>38</v>
       </c>
-      <c r="E394" s="1">
+      <c r="G394" s="1">
         <v>26.2362168182662</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>48</v>
       </c>
@@ -7364,11 +7364,11 @@
       <c r="D395" t="s">
         <v>38</v>
       </c>
-      <c r="E395" s="1">
+      <c r="G395" s="1">
         <v>14.526266938927048</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>48</v>
       </c>
@@ -7381,11 +7381,11 @@
       <c r="D396" t="s">
         <v>38</v>
       </c>
-      <c r="E396" s="1">
+      <c r="G396" s="1">
         <v>943</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>48</v>
       </c>
@@ -7398,11 +7398,11 @@
       <c r="D397" t="s">
         <v>38</v>
       </c>
-      <c r="E397" s="1">
+      <c r="G397" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>48</v>
       </c>
@@ -7415,11 +7415,11 @@
       <c r="D398" t="s">
         <v>38</v>
       </c>
-      <c r="E398" s="1">
+      <c r="G398" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>48</v>
       </c>
@@ -7432,11 +7432,11 @@
       <c r="D399" t="s">
         <v>38</v>
       </c>
-      <c r="E399" s="1">
+      <c r="G399" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>48</v>
       </c>
@@ -7449,11 +7449,11 @@
       <c r="D400" t="s">
         <v>38</v>
       </c>
-      <c r="E400" s="1">
+      <c r="G400" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>48</v>
       </c>
@@ -7466,11 +7466,11 @@
       <c r="D401" t="s">
         <v>39</v>
       </c>
-      <c r="E401" s="1">
+      <c r="G401" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>48</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>48</v>
       </c>
@@ -7497,11 +7497,11 @@
       <c r="D403" t="s">
         <v>39</v>
       </c>
-      <c r="E403" s="1">
+      <c r="G403" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>48</v>
       </c>
@@ -7514,11 +7514,11 @@
       <c r="D404" t="s">
         <v>39</v>
       </c>
-      <c r="E404" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G404" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>48</v>
       </c>
@@ -7531,11 +7531,11 @@
       <c r="D405" t="s">
         <v>39</v>
       </c>
-      <c r="E405" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G405" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>48</v>
       </c>
@@ -7548,11 +7548,11 @@
       <c r="D406" t="s">
         <v>39</v>
       </c>
-      <c r="E406" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G406" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>48</v>
       </c>
@@ -7565,11 +7565,11 @@
       <c r="D407" t="s">
         <v>39</v>
       </c>
-      <c r="E407" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G407" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>48</v>
       </c>
@@ -7582,11 +7582,11 @@
       <c r="D408" t="s">
         <v>39</v>
       </c>
-      <c r="E408" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G408" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>48</v>
       </c>
@@ -7599,11 +7599,11 @@
       <c r="D409" t="s">
         <v>39</v>
       </c>
-      <c r="E409" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G409" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>48</v>
       </c>
@@ -7616,11 +7616,11 @@
       <c r="D410" t="s">
         <v>39</v>
       </c>
-      <c r="E410" s="1">
+      <c r="G410" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>48</v>
       </c>
@@ -7633,11 +7633,11 @@
       <c r="D411" t="s">
         <v>39</v>
       </c>
-      <c r="E411" s="1">
+      <c r="G411" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>48</v>
       </c>
@@ -7650,11 +7650,11 @@
       <c r="D412" t="s">
         <v>39</v>
       </c>
-      <c r="E412" s="1">
+      <c r="G412" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>48</v>
       </c>
@@ -7667,11 +7667,11 @@
       <c r="D413" t="s">
         <v>39</v>
       </c>
-      <c r="E413" s="1">
+      <c r="G413" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>48</v>
       </c>
@@ -7684,11 +7684,11 @@
       <c r="D414" t="s">
         <v>39</v>
       </c>
-      <c r="E414" s="1">
+      <c r="G414" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>48</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>48</v>
       </c>
@@ -7715,11 +7715,11 @@
       <c r="D416" t="s">
         <v>39</v>
       </c>
-      <c r="E416" s="1">
+      <c r="G416" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>48</v>
       </c>
@@ -7732,11 +7732,11 @@
       <c r="D417" t="s">
         <v>39</v>
       </c>
-      <c r="E417" s="1">
+      <c r="G417" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>48</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>48</v>
       </c>
@@ -7763,11 +7763,11 @@
       <c r="D419" t="s">
         <v>39</v>
       </c>
-      <c r="E419" s="1">
+      <c r="G419" s="1">
         <v>288</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>48</v>
       </c>
@@ -7780,11 +7780,11 @@
       <c r="D420" t="s">
         <v>39</v>
       </c>
-      <c r="E420" s="1">
+      <c r="G420" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>48</v>
       </c>
@@ -7797,11 +7797,11 @@
       <c r="D421" t="s">
         <v>39</v>
       </c>
-      <c r="E421" s="1">
+      <c r="G421" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>48</v>
       </c>
@@ -7814,11 +7814,11 @@
       <c r="D422" t="s">
         <v>39</v>
       </c>
-      <c r="E422" s="1">
+      <c r="G422" s="1">
         <v>198.57679207920791</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>48</v>
       </c>
@@ -7831,11 +7831,11 @@
       <c r="D423" t="s">
         <v>36</v>
       </c>
-      <c r="E423" s="1">
+      <c r="G423" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>48</v>
       </c>
@@ -7848,11 +7848,11 @@
       <c r="D424" t="s">
         <v>36</v>
       </c>
-      <c r="E424" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G424" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>48</v>
       </c>
@@ -7865,11 +7865,11 @@
       <c r="D425" t="s">
         <v>36</v>
       </c>
-      <c r="E425" s="1">
+      <c r="G425" s="1">
         <v>336</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>48</v>
       </c>
@@ -7882,11 +7882,11 @@
       <c r="D426" t="s">
         <v>36</v>
       </c>
-      <c r="E426" s="1">
+      <c r="G426" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>48</v>
       </c>
@@ -7899,11 +7899,11 @@
       <c r="D427" t="s">
         <v>36</v>
       </c>
-      <c r="E427" s="1">
+      <c r="G427" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>48</v>
       </c>
@@ -7916,11 +7916,11 @@
       <c r="D428" t="s">
         <v>36</v>
       </c>
-      <c r="E428" s="1">
+      <c r="G428" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>48</v>
       </c>
@@ -7933,11 +7933,11 @@
       <c r="D429" t="s">
         <v>36</v>
       </c>
-      <c r="E429" s="1">
+      <c r="G429" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>48</v>
       </c>
@@ -7950,11 +7950,11 @@
       <c r="D430" t="s">
         <v>36</v>
       </c>
-      <c r="E430" s="1">
+      <c r="G430" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>48</v>
       </c>
@@ -7967,11 +7967,11 @@
       <c r="D431" t="s">
         <v>36</v>
       </c>
-      <c r="E431" s="1">
+      <c r="G431" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>48</v>
       </c>
@@ -7984,11 +7984,11 @@
       <c r="D432" t="s">
         <v>36</v>
       </c>
-      <c r="E432" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G432" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>48</v>
       </c>
@@ -8001,11 +8001,11 @@
       <c r="D433" t="s">
         <v>36</v>
       </c>
-      <c r="E433" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G433" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>48</v>
       </c>
@@ -8018,11 +8018,11 @@
       <c r="D434" t="s">
         <v>36</v>
       </c>
-      <c r="E434" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G434" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>48</v>
       </c>
@@ -8035,11 +8035,11 @@
       <c r="D435" t="s">
         <v>36</v>
       </c>
-      <c r="E435" s="1">
+      <c r="G435" s="1">
         <v>907</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>48</v>
       </c>
@@ -8052,11 +8052,11 @@
       <c r="D436" t="s">
         <v>36</v>
       </c>
-      <c r="E436" s="1">
+      <c r="G436" s="1">
         <v>2709</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>48</v>
       </c>
@@ -8069,11 +8069,11 @@
       <c r="D437" t="s">
         <v>26</v>
       </c>
-      <c r="E437" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G437" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>48</v>
       </c>
@@ -8086,11 +8086,11 @@
       <c r="D438" t="s">
         <v>26</v>
       </c>
-      <c r="E438" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G438" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>48</v>
       </c>
@@ -8103,11 +8103,11 @@
       <c r="D439" t="s">
         <v>26</v>
       </c>
-      <c r="E439" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G439" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>48</v>
       </c>
@@ -8120,11 +8120,11 @@
       <c r="D440" t="s">
         <v>26</v>
       </c>
-      <c r="E440" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G440" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>48</v>
       </c>
@@ -8137,11 +8137,11 @@
       <c r="D441" t="s">
         <v>26</v>
       </c>
-      <c r="E441" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G441" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>48</v>
       </c>
@@ -8154,11 +8154,11 @@
       <c r="D442" t="s">
         <v>26</v>
       </c>
-      <c r="E442" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G442" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>48</v>
       </c>
@@ -8171,11 +8171,11 @@
       <c r="D443" t="s">
         <v>26</v>
       </c>
-      <c r="E443" s="1">
+      <c r="G443" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>48</v>
       </c>
@@ -8188,11 +8188,11 @@
       <c r="D444" t="s">
         <v>26</v>
       </c>
-      <c r="E444" s="1">
+      <c r="G444" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>48</v>
       </c>
@@ -8205,11 +8205,11 @@
       <c r="D445" t="s">
         <v>26</v>
       </c>
-      <c r="E445" s="1">
+      <c r="G445" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>48</v>
       </c>
@@ -8222,11 +8222,11 @@
       <c r="D446" t="s">
         <v>26</v>
       </c>
-      <c r="E446" s="1">
+      <c r="G446" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>48</v>
       </c>
@@ -8239,11 +8239,11 @@
       <c r="D447" t="s">
         <v>26</v>
       </c>
-      <c r="E447" s="1">
+      <c r="G447" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>48</v>
       </c>
@@ -8256,11 +8256,11 @@
       <c r="D448" t="s">
         <v>26</v>
       </c>
-      <c r="E448" s="1">
+      <c r="G448" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>48</v>
       </c>
@@ -8273,11 +8273,11 @@
       <c r="D449" t="s">
         <v>26</v>
       </c>
-      <c r="E449" s="1">
+      <c r="G449" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>48</v>
       </c>
@@ -8290,11 +8290,11 @@
       <c r="D450" t="s">
         <v>26</v>
       </c>
-      <c r="E450" s="1">
+      <c r="G450" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>48</v>
       </c>
@@ -8307,11 +8307,11 @@
       <c r="D451" t="s">
         <v>26</v>
       </c>
-      <c r="E451" s="1">
+      <c r="G451" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>48</v>
       </c>
@@ -8324,11 +8324,11 @@
       <c r="D452" t="s">
         <v>26</v>
       </c>
-      <c r="E452" s="1">
+      <c r="G452" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>48</v>
       </c>
@@ -8341,11 +8341,11 @@
       <c r="D453" t="s">
         <v>26</v>
       </c>
-      <c r="E453" s="1">
+      <c r="G453" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>48</v>
       </c>
@@ -8358,11 +8358,11 @@
       <c r="D454" t="s">
         <v>26</v>
       </c>
-      <c r="E454" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G454" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>48</v>
       </c>
@@ -8375,11 +8375,11 @@
       <c r="D455" t="s">
         <v>26</v>
       </c>
-      <c r="E455" s="1">
+      <c r="G455" s="1">
         <v>2600</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>48</v>
       </c>
@@ -8392,11 +8392,11 @@
       <c r="D456" t="s">
         <v>26</v>
       </c>
-      <c r="E456" s="1">
+      <c r="G456" s="1">
         <v>11.857176196032672</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>48</v>
       </c>
@@ -8409,11 +8409,11 @@
       <c r="D457" t="s">
         <v>26</v>
       </c>
-      <c r="E457" s="1">
+      <c r="G457" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>48</v>
       </c>
@@ -8426,11 +8426,11 @@
       <c r="D458" t="s">
         <v>26</v>
       </c>
-      <c r="E458" s="1">
+      <c r="G458" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>48</v>
       </c>
@@ -8443,11 +8443,11 @@
       <c r="D459" t="s">
         <v>26</v>
       </c>
-      <c r="E459" s="1">
+      <c r="G459" s="1">
         <v>5.6541423570595102</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>48</v>
       </c>
@@ -8460,11 +8460,11 @@
       <c r="D460" t="s">
         <v>26</v>
       </c>
-      <c r="E460" s="1">
+      <c r="G460" s="1">
         <v>0.82707117852975509</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>48</v>
       </c>
@@ -8477,11 +8477,11 @@
       <c r="D461" t="s">
         <v>26</v>
       </c>
-      <c r="E461" s="1">
+      <c r="G461" s="1">
         <v>167.09824970828475</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>48</v>
       </c>
@@ -8494,11 +8494,11 @@
       <c r="D462" t="s">
         <v>26</v>
       </c>
-      <c r="E462" s="1">
+      <c r="G462" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>48</v>
       </c>
@@ -8511,11 +8511,11 @@
       <c r="D463" t="s">
         <v>26</v>
       </c>
-      <c r="E463" s="1">
+      <c r="G463" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>48</v>
       </c>
@@ -8528,11 +8528,11 @@
       <c r="D464" t="s">
         <v>34</v>
       </c>
-      <c r="E464" s="1">
+      <c r="G464" s="1">
         <v>3619</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>48</v>
       </c>
@@ -8545,11 +8545,11 @@
       <c r="D465" t="s">
         <v>34</v>
       </c>
-      <c r="E465" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G465" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>48</v>
       </c>
@@ -8562,11 +8562,11 @@
       <c r="D466" t="s">
         <v>34</v>
       </c>
-      <c r="E466" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G466" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>48</v>
       </c>
@@ -8579,11 +8579,11 @@
       <c r="D467" t="s">
         <v>34</v>
       </c>
-      <c r="E467" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G467" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>48</v>
       </c>
@@ -8596,11 +8596,11 @@
       <c r="D468" t="s">
         <v>34</v>
       </c>
-      <c r="E468" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G468" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>48</v>
       </c>
@@ -8613,11 +8613,11 @@
       <c r="D469" t="s">
         <v>34</v>
       </c>
-      <c r="E469" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G469" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>48</v>
       </c>
@@ -8630,11 +8630,11 @@
       <c r="D470" t="s">
         <v>34</v>
       </c>
-      <c r="E470" s="1">
+      <c r="G470" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>48</v>
       </c>
@@ -8647,11 +8647,11 @@
       <c r="D471" t="s">
         <v>34</v>
       </c>
-      <c r="E471" s="1">
+      <c r="G471" s="1">
         <v>39.135501687634246</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>48</v>
       </c>
@@ -8664,11 +8664,11 @@
       <c r="D472" t="s">
         <v>34</v>
       </c>
-      <c r="E472" s="1">
+      <c r="G472" s="1">
         <v>69.574225222460882</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>48</v>
       </c>
@@ -8681,11 +8681,11 @@
       <c r="D473" t="s">
         <v>34</v>
       </c>
-      <c r="E473" s="1">
+      <c r="G473" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>48</v>
       </c>
@@ -8698,11 +8698,11 @@
       <c r="D474" t="s">
         <v>34</v>
       </c>
-      <c r="E474" s="1">
+      <c r="G474" s="1">
         <v>191.32911936176743</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>48</v>
       </c>
@@ -8715,11 +8715,11 @@
       <c r="D475" t="s">
         <v>34</v>
       </c>
-      <c r="E475" s="1">
+      <c r="G475" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>48</v>
       </c>
@@ -8732,11 +8732,11 @@
       <c r="D476" t="s">
         <v>34</v>
       </c>
-      <c r="E476" s="1">
+      <c r="G476" s="1">
         <v>60.152715556919304</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>48</v>
       </c>
@@ -8749,11 +8749,11 @@
       <c r="D477" t="s">
         <v>34</v>
       </c>
-      <c r="E477" s="1">
+      <c r="G477" s="1">
         <v>436</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>48</v>
       </c>
@@ -8766,11 +8766,11 @@
       <c r="D478" t="s">
         <v>34</v>
       </c>
-      <c r="E478" s="1">
+      <c r="G478" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>48</v>
       </c>
@@ -8783,11 +8783,11 @@
       <c r="D479" t="s">
         <v>34</v>
       </c>
-      <c r="E479" s="1">
+      <c r="G479" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>48</v>
       </c>
@@ -8800,11 +8800,11 @@
       <c r="D480" t="s">
         <v>34</v>
       </c>
-      <c r="E480" s="1">
+      <c r="G480" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>48</v>
       </c>
@@ -8817,11 +8817,11 @@
       <c r="D481" t="s">
         <v>34</v>
       </c>
-      <c r="E481" s="1">
+      <c r="G481" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>48</v>
       </c>
@@ -8834,11 +8834,11 @@
       <c r="D482" t="s">
         <v>35</v>
       </c>
-      <c r="E482" s="1">
+      <c r="G482" s="1">
         <v>23.14477747502271</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>48</v>
       </c>
@@ -8851,11 +8851,11 @@
       <c r="D483" t="s">
         <v>35</v>
       </c>
-      <c r="E483" s="1">
+      <c r="G483" s="1">
         <v>48.21828640629731</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>48</v>
       </c>
@@ -8868,11 +8868,11 @@
       <c r="D484" t="s">
         <v>35</v>
       </c>
-      <c r="E484" s="1">
+      <c r="G484" s="1">
         <v>89.686012715713005</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>48</v>
       </c>
@@ -8885,11 +8885,11 @@
       <c r="D485" t="s">
         <v>35</v>
       </c>
-      <c r="E485" s="1">
+      <c r="G485" s="1">
         <v>92.579109900090842</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>48</v>
       </c>
@@ -8902,11 +8902,11 @@
       <c r="D486" t="s">
         <v>35</v>
       </c>
-      <c r="E486" s="1">
+      <c r="G486" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>48</v>
       </c>
@@ -8919,11 +8919,11 @@
       <c r="D487" t="s">
         <v>35</v>
       </c>
-      <c r="E487" s="1">
+      <c r="G487" s="1">
         <v>432.03584620042392</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>48</v>
       </c>
@@ -8936,11 +8936,11 @@
       <c r="D488" t="s">
         <v>35</v>
       </c>
-      <c r="E488" s="1">
+      <c r="G488" s="1">
         <v>462.89554950045419</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>48</v>
       </c>
@@ -8953,11 +8953,11 @@
       <c r="D489" t="s">
         <v>35</v>
       </c>
-      <c r="E489" s="1">
+      <c r="G489" s="1">
         <v>3853</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>48</v>
       </c>
@@ -8970,11 +8970,11 @@
       <c r="D490" t="s">
         <v>35</v>
       </c>
-      <c r="E490" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G490" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>48</v>
       </c>
@@ -8987,11 +8987,11 @@
       <c r="D491" t="s">
         <v>35</v>
       </c>
-      <c r="E491" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G491" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>48</v>
       </c>
@@ -9004,11 +9004,11 @@
       <c r="D492" t="s">
         <v>35</v>
       </c>
-      <c r="E492" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G492" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>48</v>
       </c>
@@ -9021,11 +9021,11 @@
       <c r="D493" t="s">
         <v>35</v>
       </c>
-      <c r="E493" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G493" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>48</v>
       </c>
@@ -9038,11 +9038,11 @@
       <c r="D494" t="s">
         <v>35</v>
       </c>
-      <c r="E494" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G494" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>48</v>
       </c>
@@ -9055,11 +9055,11 @@
       <c r="D495" t="s">
         <v>35</v>
       </c>
-      <c r="E495" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G495" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>48</v>
       </c>
@@ -9072,11 +9072,11 @@
       <c r="D496" t="s">
         <v>35</v>
       </c>
-      <c r="E496" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G496" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>48</v>
       </c>
@@ -9089,11 +9089,11 @@
       <c r="D497" t="s">
         <v>35</v>
       </c>
-      <c r="E497" s="1">
+      <c r="G497" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>48</v>
       </c>
@@ -9106,11 +9106,11 @@
       <c r="D498" t="s">
         <v>35</v>
       </c>
-      <c r="E498" s="1">
+      <c r="G498" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>48</v>
       </c>
@@ -9123,11 +9123,11 @@
       <c r="D499" t="s">
         <v>35</v>
       </c>
-      <c r="E499" s="1">
+      <c r="G499" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>48</v>
       </c>
@@ -9140,11 +9140,11 @@
       <c r="D500" t="s">
         <v>35</v>
       </c>
-      <c r="E500" s="1">
+      <c r="G500" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>48</v>
       </c>
@@ -9157,11 +9157,11 @@
       <c r="D501" t="s">
         <v>35</v>
       </c>
-      <c r="E501" s="1">
+      <c r="G501" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>48</v>
       </c>
@@ -9174,11 +9174,11 @@
       <c r="D502" t="s">
         <v>37</v>
       </c>
-      <c r="E502" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G502" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>48</v>
       </c>
@@ -9191,11 +9191,11 @@
       <c r="D503" t="s">
         <v>37</v>
       </c>
-      <c r="E503" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G503" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>48</v>
       </c>
@@ -9208,11 +9208,11 @@
       <c r="D504" t="s">
         <v>37</v>
       </c>
-      <c r="E504" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G504" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>48</v>
       </c>
@@ -9225,11 +9225,11 @@
       <c r="D505" t="s">
         <v>37</v>
       </c>
-      <c r="E505" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G505" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>48</v>
       </c>
@@ -9242,11 +9242,11 @@
       <c r="D506" t="s">
         <v>37</v>
       </c>
-      <c r="E506" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G506" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>48</v>
       </c>
@@ -9259,11 +9259,11 @@
       <c r="D507" t="s">
         <v>37</v>
       </c>
-      <c r="E507" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G507" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>48</v>
       </c>
@@ -9276,11 +9276,11 @@
       <c r="D508" t="s">
         <v>37</v>
       </c>
-      <c r="E508" s="1">
+      <c r="G508" s="1">
         <v>3093</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>48</v>
       </c>
@@ -9293,11 +9293,11 @@
       <c r="D509" t="s">
         <v>37</v>
       </c>
-      <c r="E509" s="1">
+      <c r="G509" s="1">
         <v>145.05050542867838</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>48</v>
       </c>
@@ -9310,11 +9310,11 @@
       <c r="D510" t="s">
         <v>37</v>
       </c>
-      <c r="E510" s="1">
+      <c r="G510" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>48</v>
       </c>
@@ -9327,11 +9327,11 @@
       <c r="D511" t="s">
         <v>37</v>
       </c>
-      <c r="E511" s="1">
+      <c r="G511" s="1">
         <v>47.6739423436915</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>48</v>
       </c>
@@ -9344,11 +9344,11 @@
       <c r="D512" t="s">
         <v>37</v>
       </c>
-      <c r="E512" s="1">
+      <c r="G512" s="1">
         <v>68.975065518532375</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>48</v>
       </c>
@@ -9361,11 +9361,11 @@
       <c r="D513" t="s">
         <v>37</v>
       </c>
-      <c r="E513" s="1">
+      <c r="G513" s="1">
         <v>97.376563084986884</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>48</v>
       </c>
@@ -9378,11 +9378,11 @@
       <c r="D514" t="s">
         <v>37</v>
       </c>
-      <c r="E514" s="1">
+      <c r="G514" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>48</v>
       </c>
@@ -9395,11 +9395,11 @@
       <c r="D515" t="s">
         <v>37</v>
       </c>
-      <c r="E515" s="1">
+      <c r="G515" s="1">
         <v>247.49876450767502</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>48</v>
       </c>
@@ -9412,11 +9412,11 @@
       <c r="D516" t="s">
         <v>37</v>
       </c>
-      <c r="E516" s="1">
+      <c r="G516" s="1">
         <v>389.50625233994754</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>48</v>
       </c>
@@ -9429,11 +9429,11 @@
       <c r="D517" t="s">
         <v>37</v>
       </c>
-      <c r="E517" s="1">
+      <c r="G517" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>48</v>
       </c>
@@ -9446,11 +9446,11 @@
       <c r="D518" t="s">
         <v>37</v>
       </c>
-      <c r="E518" s="1">
+      <c r="G518" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>48</v>
       </c>
@@ -9463,11 +9463,11 @@
       <c r="D519" t="s">
         <v>37</v>
       </c>
-      <c r="E519" s="1">
+      <c r="G519" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>48</v>
       </c>
@@ -9480,11 +9480,11 @@
       <c r="D520" t="s">
         <v>37</v>
       </c>
-      <c r="E520" s="1">
+      <c r="G520" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>48</v>
       </c>
@@ -9497,11 +9497,11 @@
       <c r="D521" t="s">
         <v>28</v>
       </c>
-      <c r="E521" s="1">
+      <c r="G521" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>48</v>
       </c>
@@ -9514,11 +9514,11 @@
       <c r="D522" t="s">
         <v>28</v>
       </c>
-      <c r="E522" s="1">
+      <c r="G522" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>48</v>
       </c>
@@ -9531,11 +9531,11 @@
       <c r="D523" t="s">
         <v>28</v>
       </c>
-      <c r="E523" s="1">
+      <c r="G523" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>48</v>
       </c>
@@ -9548,11 +9548,11 @@
       <c r="D524" t="s">
         <v>28</v>
       </c>
-      <c r="E524" s="1">
+      <c r="G524" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>48</v>
       </c>
@@ -9565,11 +9565,11 @@
       <c r="D525" t="s">
         <v>28</v>
       </c>
-      <c r="E525" s="1">
+      <c r="G525" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>48</v>
       </c>
@@ -9582,11 +9582,11 @@
       <c r="D526" t="s">
         <v>28</v>
       </c>
-      <c r="E526" s="1">
+      <c r="G526" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>48</v>
       </c>
@@ -9599,11 +9599,11 @@
       <c r="D527" t="s">
         <v>28</v>
       </c>
-      <c r="E527" s="1">
+      <c r="G527" s="1">
         <v>465</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>48</v>
       </c>
@@ -9616,11 +9616,11 @@
       <c r="D528" t="s">
         <v>28</v>
       </c>
-      <c r="E528" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G528" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>48</v>
       </c>
@@ -9633,11 +9633,11 @@
       <c r="D529" t="s">
         <v>28</v>
       </c>
-      <c r="E529" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G529" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>48</v>
       </c>
@@ -9650,11 +9650,11 @@
       <c r="D530" t="s">
         <v>28</v>
       </c>
-      <c r="E530" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G530" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>48</v>
       </c>
@@ -9667,11 +9667,11 @@
       <c r="D531" t="s">
         <v>28</v>
       </c>
-      <c r="E531" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G531" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>48</v>
       </c>
@@ -9684,11 +9684,11 @@
       <c r="D532" t="s">
         <v>28</v>
       </c>
-      <c r="E532" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G532" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>48</v>
       </c>
@@ -9701,11 +9701,11 @@
       <c r="D533" t="s">
         <v>28</v>
       </c>
-      <c r="E533" s="1">
+      <c r="G533" s="1">
         <v>693</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>48</v>
       </c>
@@ -9718,11 +9718,11 @@
       <c r="D534" t="s">
         <v>28</v>
       </c>
-      <c r="E534" s="1">
+      <c r="G534" s="1">
         <v>1167</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>48</v>
       </c>
@@ -9735,11 +9735,11 @@
       <c r="D535" t="s">
         <v>28</v>
       </c>
-      <c r="E535" s="1">
+      <c r="G535" s="1">
         <v>1937</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>48</v>
       </c>
@@ -9752,11 +9752,11 @@
       <c r="D536" t="s">
         <v>28</v>
       </c>
-      <c r="E536" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G536" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>48</v>
       </c>
@@ -9769,11 +9769,11 @@
       <c r="D537" t="s">
         <v>28</v>
       </c>
-      <c r="E537" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G537" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>48</v>
       </c>
@@ -9786,11 +9786,11 @@
       <c r="D538" t="s">
         <v>28</v>
       </c>
-      <c r="E538" s="1">
+      <c r="G538" s="1">
         <v>1.6095451825254337</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>48</v>
       </c>
@@ -9803,11 +9803,11 @@
       <c r="D539" t="s">
         <v>28</v>
       </c>
-      <c r="E539" s="1">
+      <c r="G539" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>48</v>
       </c>
@@ -9820,11 +9820,11 @@
       <c r="D540" t="s">
         <v>28</v>
       </c>
-      <c r="E540" s="1">
+      <c r="G540" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>48</v>
       </c>
@@ -9837,11 +9837,11 @@
       <c r="D541" t="s">
         <v>28</v>
       </c>
-      <c r="E541" s="1">
+      <c r="G541" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>48</v>
       </c>
@@ -9854,11 +9854,11 @@
       <c r="D542" t="s">
         <v>28</v>
       </c>
-      <c r="E542" s="1">
+      <c r="G542" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>48</v>
       </c>
@@ -9871,11 +9871,11 @@
       <c r="D543" t="s">
         <v>28</v>
       </c>
-      <c r="E543" s="1">
+      <c r="G543" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>48</v>
       </c>
@@ -9888,11 +9888,11 @@
       <c r="D544" t="s">
         <v>28</v>
       </c>
-      <c r="E544" s="1">
+      <c r="G544" s="1">
         <v>24.317414721723537</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>48</v>
       </c>
@@ -9905,11 +9905,11 @@
       <c r="D545" t="s">
         <v>28</v>
       </c>
-      <c r="E545" s="1">
+      <c r="G545" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>48</v>
       </c>
@@ -9922,11 +9922,11 @@
       <c r="D546" t="s">
         <v>28</v>
       </c>
-      <c r="E546" s="1">
+      <c r="G546" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>48</v>
       </c>
@@ -9939,11 +9939,11 @@
       <c r="D547" t="s">
         <v>28</v>
       </c>
-      <c r="E547" s="1">
+      <c r="G547" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>48</v>
       </c>
@@ -9956,11 +9956,11 @@
       <c r="D548" t="s">
         <v>28</v>
       </c>
-      <c r="E548" s="1">
+      <c r="G548" s="1">
         <v>3979</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>48</v>
       </c>
@@ -9973,11 +9973,11 @@
       <c r="D549" t="s">
         <v>28</v>
       </c>
-      <c r="E549" s="1">
+      <c r="G549" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>48</v>
       </c>
@@ -9990,11 +9990,11 @@
       <c r="D550" t="s">
         <v>42</v>
       </c>
-      <c r="E550" s="1">
+      <c r="G550" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>48</v>
       </c>
@@ -10007,11 +10007,11 @@
       <c r="D551" t="s">
         <v>42</v>
       </c>
-      <c r="E551" s="1">
+      <c r="G551" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>48</v>
       </c>
@@ -10024,11 +10024,11 @@
       <c r="D552" t="s">
         <v>42</v>
       </c>
-      <c r="E552" s="1">
+      <c r="G552" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>48</v>
       </c>
@@ -10041,11 +10041,11 @@
       <c r="D553" t="s">
         <v>42</v>
       </c>
-      <c r="E553" s="1">
+      <c r="G553" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>48</v>
       </c>
@@ -10058,11 +10058,11 @@
       <c r="D554" t="s">
         <v>42</v>
       </c>
-      <c r="E554" s="1">
+      <c r="G554" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>48</v>
       </c>
@@ -10075,11 +10075,11 @@
       <c r="D555" t="s">
         <v>42</v>
       </c>
-      <c r="E555" s="1">
+      <c r="G555" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>48</v>
       </c>
@@ -10092,11 +10092,11 @@
       <c r="D556" t="s">
         <v>42</v>
       </c>
-      <c r="E556" s="1">
+      <c r="G556" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>48</v>
       </c>
@@ -10109,11 +10109,11 @@
       <c r="D557" t="s">
         <v>42</v>
       </c>
-      <c r="E557" s="1">
+      <c r="G557" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>48</v>
       </c>
@@ -10126,11 +10126,11 @@
       <c r="D558" t="s">
         <v>42</v>
       </c>
-      <c r="E558" s="1">
+      <c r="G558" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>48</v>
       </c>
@@ -10143,11 +10143,11 @@
       <c r="D559" t="s">
         <v>42</v>
       </c>
-      <c r="E559" s="1">
+      <c r="G559" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>48</v>
       </c>
@@ -10160,11 +10160,11 @@
       <c r="D560" t="s">
         <v>42</v>
       </c>
-      <c r="E560" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G560" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>48</v>
       </c>
@@ -10177,11 +10177,11 @@
       <c r="D561" t="s">
         <v>44</v>
       </c>
-      <c r="E561" s="1">
+      <c r="G561" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>48</v>
       </c>
@@ -10194,11 +10194,11 @@
       <c r="D562" t="s">
         <v>44</v>
       </c>
-      <c r="E562" s="1">
+      <c r="G562" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>48</v>
       </c>
@@ -10211,11 +10211,11 @@
       <c r="D563" t="s">
         <v>44</v>
       </c>
-      <c r="E563" s="1">
+      <c r="G563" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>48</v>
       </c>
@@ -10228,11 +10228,11 @@
       <c r="D564" t="s">
         <v>44</v>
       </c>
-      <c r="E564" s="1">
+      <c r="G564" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>48</v>
       </c>
@@ -10245,11 +10245,11 @@
       <c r="D565" t="s">
         <v>44</v>
       </c>
-      <c r="E565" s="1">
+      <c r="G565" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>48</v>
       </c>
@@ -10262,11 +10262,11 @@
       <c r="D566" t="s">
         <v>44</v>
       </c>
-      <c r="E566" s="1">
+      <c r="G566" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>48</v>
       </c>
@@ -10279,11 +10279,11 @@
       <c r="D567" t="s">
         <v>44</v>
       </c>
-      <c r="E567" s="1">
+      <c r="G567" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>48</v>
       </c>
@@ -10296,11 +10296,11 @@
       <c r="D568" t="s">
         <v>44</v>
       </c>
-      <c r="E568" s="1">
+      <c r="G568" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>48</v>
       </c>
@@ -10313,11 +10313,11 @@
       <c r="D569" t="s">
         <v>44</v>
       </c>
-      <c r="E569" s="1">
+      <c r="G569" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>48</v>
       </c>
@@ -10330,11 +10330,11 @@
       <c r="D570" t="s">
         <v>44</v>
       </c>
-      <c r="E570" s="1">
+      <c r="G570" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>48</v>
       </c>
@@ -10347,11 +10347,11 @@
       <c r="D571" t="s">
         <v>44</v>
       </c>
-      <c r="E571" s="1">
+      <c r="G571" s="1">
         <v>3226</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>48</v>
       </c>
@@ -10364,11 +10364,11 @@
       <c r="D572" t="s">
         <v>44</v>
       </c>
-      <c r="E572" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G572" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>48</v>
       </c>
@@ -10381,11 +10381,11 @@
       <c r="D573" t="s">
         <v>44</v>
       </c>
-      <c r="E573" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G573" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>48</v>
       </c>
@@ -10398,11 +10398,11 @@
       <c r="D574" t="s">
         <v>44</v>
       </c>
-      <c r="E574" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G574" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>48</v>
       </c>
@@ -10415,11 +10415,11 @@
       <c r="D575" t="s">
         <v>44</v>
       </c>
-      <c r="E575" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G575" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>48</v>
       </c>
@@ -10432,11 +10432,11 @@
       <c r="D576" t="s">
         <v>45</v>
       </c>
-      <c r="E576" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G576" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>48</v>
       </c>
@@ -10449,11 +10449,11 @@
       <c r="D577" t="s">
         <v>45</v>
       </c>
-      <c r="E577" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G577" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>48</v>
       </c>
@@ -10466,11 +10466,11 @@
       <c r="D578" t="s">
         <v>45</v>
       </c>
-      <c r="E578" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G578" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>48</v>
       </c>
@@ -10483,11 +10483,11 @@
       <c r="D579" t="s">
         <v>45</v>
       </c>
-      <c r="E579" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G579" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>48</v>
       </c>
@@ -10500,11 +10500,11 @@
       <c r="D580" t="s">
         <v>32</v>
       </c>
-      <c r="E580" s="1">
+      <c r="G580" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>48</v>
       </c>
@@ -10517,11 +10517,11 @@
       <c r="D581" t="s">
         <v>32</v>
       </c>
-      <c r="E581" s="1">
+      <c r="G581" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>48</v>
       </c>
@@ -10534,11 +10534,11 @@
       <c r="D582" t="s">
         <v>32</v>
       </c>
-      <c r="E582" s="1">
+      <c r="G582" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>48</v>
       </c>
@@ -10551,11 +10551,11 @@
       <c r="D583" t="s">
         <v>32</v>
       </c>
-      <c r="E583" s="1">
+      <c r="G583" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>48</v>
       </c>
@@ -10568,11 +10568,11 @@
       <c r="D584" t="s">
         <v>32</v>
       </c>
-      <c r="E584" s="1">
+      <c r="G584" s="1">
         <v>2919</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>48</v>
       </c>
@@ -10585,11 +10585,11 @@
       <c r="D585" t="s">
         <v>32</v>
       </c>
-      <c r="E585" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G585" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>48</v>
       </c>
@@ -10602,11 +10602,11 @@
       <c r="D586" t="s">
         <v>32</v>
       </c>
-      <c r="E586" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G586" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>48</v>
       </c>
@@ -10619,11 +10619,11 @@
       <c r="D587" t="s">
         <v>32</v>
       </c>
-      <c r="E587" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G587" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>48</v>
       </c>
@@ -10636,11 +10636,11 @@
       <c r="D588" t="s">
         <v>32</v>
       </c>
-      <c r="E588" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G588" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>48</v>
       </c>
@@ -10653,11 +10653,11 @@
       <c r="D589" t="s">
         <v>32</v>
       </c>
-      <c r="E589" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G589" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>48</v>
       </c>
@@ -10670,11 +10670,11 @@
       <c r="D590" t="s">
         <v>32</v>
       </c>
-      <c r="E590" s="1">
+      <c r="G590" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>48</v>
       </c>
@@ -10687,11 +10687,11 @@
       <c r="D591" t="s">
         <v>32</v>
       </c>
-      <c r="E591" s="1">
+      <c r="G591" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>48</v>
       </c>
@@ -10704,11 +10704,11 @@
       <c r="D592" t="s">
         <v>32</v>
       </c>
-      <c r="E592" s="1">
+      <c r="G592" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>48</v>
       </c>
@@ -10721,11 +10721,11 @@
       <c r="D593" t="s">
         <v>32</v>
       </c>
-      <c r="E593" s="1">
+      <c r="G593" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>48</v>
       </c>
@@ -10738,11 +10738,11 @@
       <c r="D594" t="s">
         <v>46</v>
       </c>
-      <c r="E594" s="1">
+      <c r="G594" s="1">
         <v>1628</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>48</v>
       </c>
@@ -10755,11 +10755,11 @@
       <c r="D595" t="s">
         <v>47</v>
       </c>
-      <c r="E595" s="1">
+      <c r="G595" s="1">
         <v>2864</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>48</v>
       </c>
@@ -10772,11 +10772,11 @@
       <c r="D596" t="s">
         <v>47</v>
       </c>
-      <c r="E596" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G596" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>48</v>
       </c>
@@ -10789,11 +10789,11 @@
       <c r="D597" t="s">
         <v>47</v>
       </c>
-      <c r="E597" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G597" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>48</v>
       </c>
@@ -10806,11 +10806,11 @@
       <c r="D598" t="s">
         <v>29</v>
       </c>
-      <c r="E598" s="1">
+      <c r="G598" s="1">
         <v>29.724410003522369</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>48</v>
       </c>
@@ -10823,11 +10823,11 @@
       <c r="D599" t="s">
         <v>29</v>
       </c>
-      <c r="E599" s="1">
+      <c r="G599" s="1">
         <v>59.448820007044738</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>48</v>
       </c>
@@ -10840,11 +10840,11 @@
       <c r="D600" t="s">
         <v>29</v>
       </c>
-      <c r="E600" s="1">
+      <c r="G600" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>48</v>
       </c>
@@ -10857,11 +10857,11 @@
       <c r="D601" t="s">
         <v>29</v>
       </c>
-      <c r="E601" s="1">
+      <c r="G601" s="1">
         <v>86.4710109193378</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>48</v>
       </c>
@@ -10874,11 +10874,11 @@
       <c r="D602" t="s">
         <v>29</v>
       </c>
-      <c r="E602" s="1">
+      <c r="G602" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>48</v>
       </c>
@@ -10891,11 +10891,11 @@
       <c r="D603" t="s">
         <v>29</v>
       </c>
-      <c r="E603" s="1">
+      <c r="G603" s="1">
         <v>153.12574850299401</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>48</v>
       </c>
@@ -10908,11 +10908,11 @@
       <c r="D604" t="s">
         <v>29</v>
       </c>
-      <c r="E604" s="1">
+      <c r="G604" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>48</v>
       </c>
@@ -10925,11 +10925,11 @@
       <c r="D605" t="s">
         <v>29</v>
       </c>
-      <c r="E605" s="1">
+      <c r="G605" s="1">
         <v>3113</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>48</v>
       </c>
@@ -10942,11 +10942,11 @@
       <c r="D606" t="s">
         <v>29</v>
       </c>
-      <c r="E606" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G606" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>48</v>
       </c>
@@ -10959,11 +10959,11 @@
       <c r="D607" t="s">
         <v>29</v>
       </c>
-      <c r="E607" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G607" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>48</v>
       </c>
@@ -10976,11 +10976,11 @@
       <c r="D608" t="s">
         <v>29</v>
       </c>
-      <c r="E608" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G608" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>48</v>
       </c>
@@ -10993,11 +10993,11 @@
       <c r="D609" t="s">
         <v>29</v>
       </c>
-      <c r="E609" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G609" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>48</v>
       </c>
@@ -11010,11 +11010,11 @@
       <c r="D610" t="s">
         <v>29</v>
       </c>
-      <c r="E610" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G610" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>48</v>
       </c>
@@ -11027,11 +11027,11 @@
       <c r="D611" t="s">
         <v>29</v>
       </c>
-      <c r="E611" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G611" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>48</v>
       </c>
@@ -11044,11 +11044,11 @@
       <c r="D612" t="s">
         <v>29</v>
       </c>
-      <c r="E612" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G612" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>48</v>
       </c>
@@ -11061,11 +11061,11 @@
       <c r="D613" t="s">
         <v>29</v>
       </c>
-      <c r="E613" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G613" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>48</v>
       </c>
@@ -11078,11 +11078,11 @@
       <c r="D614" t="s">
         <v>29</v>
       </c>
-      <c r="E614" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G614" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>48</v>
       </c>
@@ -11095,11 +11095,11 @@
       <c r="D615" t="s">
         <v>29</v>
       </c>
-      <c r="E615" s="1">
+      <c r="G615" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>48</v>
       </c>
@@ -11112,11 +11112,11 @@
       <c r="D616" t="s">
         <v>29</v>
       </c>
-      <c r="E616" s="1">
+      <c r="G616" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>48</v>
       </c>
@@ -11129,11 +11129,11 @@
       <c r="D617" t="s">
         <v>29</v>
       </c>
-      <c r="E617" s="1">
+      <c r="G617" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>48</v>
       </c>
@@ -11146,11 +11146,11 @@
       <c r="D618" t="s">
         <v>29</v>
       </c>
-      <c r="E618" s="1">
+      <c r="G618" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>48</v>
       </c>
@@ -11163,11 +11163,11 @@
       <c r="D619" t="s">
         <v>29</v>
       </c>
-      <c r="E619" s="1">
+      <c r="G619" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>48</v>
       </c>
@@ -11180,11 +11180,11 @@
       <c r="D620" t="s">
         <v>29</v>
       </c>
-      <c r="E620" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G620" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>48</v>
       </c>
@@ -11197,11 +11197,11 @@
       <c r="D621" t="s">
         <v>29</v>
       </c>
-      <c r="E621" s="1">
+      <c r="G621" s="1">
         <v>1731</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>48</v>
       </c>
@@ -11214,11 +11214,11 @@
       <c r="D622" t="s">
         <v>29</v>
       </c>
-      <c r="E622" s="1">
+      <c r="G622" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>48</v>
       </c>
@@ -11231,11 +11231,11 @@
       <c r="D623" t="s">
         <v>29</v>
       </c>
-      <c r="E623" s="1">
+      <c r="G623" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>48</v>
       </c>
@@ -11248,11 +11248,11 @@
       <c r="D624" t="s">
         <v>29</v>
       </c>
-      <c r="E624" s="1">
+      <c r="G624" s="1">
         <v>291</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>48</v>
       </c>
@@ -11265,11 +11265,11 @@
       <c r="D625" t="s">
         <v>29</v>
       </c>
-      <c r="E625" s="1">
+      <c r="G625" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>48</v>
       </c>
@@ -11282,11 +11282,11 @@
       <c r="D626" t="s">
         <v>29</v>
       </c>
-      <c r="E626" s="1">
+      <c r="G626" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>48</v>
       </c>
@@ -11299,11 +11299,11 @@
       <c r="D627" t="s">
         <v>29</v>
       </c>
-      <c r="E627" s="1">
+      <c r="G627" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>48</v>
       </c>
@@ -11316,11 +11316,11 @@
       <c r="D628" t="s">
         <v>29</v>
       </c>
-      <c r="E628" s="1">
+      <c r="G628" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>48</v>
       </c>
@@ -11333,11 +11333,11 @@
       <c r="D629" t="s">
         <v>29</v>
       </c>
-      <c r="E629" s="1">
+      <c r="G629" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>48</v>
       </c>
@@ -11350,11 +11350,11 @@
       <c r="D630" t="s">
         <v>29</v>
       </c>
-      <c r="E630" s="1">
+      <c r="G630" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>48</v>
       </c>
@@ -11367,11 +11367,11 @@
       <c r="D631" t="s">
         <v>29</v>
       </c>
-      <c r="E631" s="1">
+      <c r="G631" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>48</v>
       </c>
@@ -11384,11 +11384,11 @@
       <c r="D632" t="s">
         <v>30</v>
       </c>
-      <c r="E632" s="1">
+      <c r="G632" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>48</v>
       </c>
@@ -11401,11 +11401,11 @@
       <c r="D633" t="s">
         <v>30</v>
       </c>
-      <c r="E633" s="1">
+      <c r="G633" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>48</v>
       </c>
@@ -11418,11 +11418,11 @@
       <c r="D634" t="s">
         <v>30</v>
       </c>
-      <c r="E634" s="1">
+      <c r="G634" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>48</v>
       </c>
@@ -11435,11 +11435,11 @@
       <c r="D635" t="s">
         <v>30</v>
       </c>
-      <c r="E635" s="1">
+      <c r="G635" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>48</v>
       </c>
@@ -11452,11 +11452,11 @@
       <c r="D636" t="s">
         <v>30</v>
       </c>
-      <c r="E636" s="1">
+      <c r="G636" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>48</v>
       </c>
@@ -11469,11 +11469,11 @@
       <c r="D637" t="s">
         <v>30</v>
       </c>
-      <c r="E637" s="1">
+      <c r="G637" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>48</v>
       </c>
@@ -11486,11 +11486,11 @@
       <c r="D638" t="s">
         <v>30</v>
       </c>
-      <c r="E638" s="1">
+      <c r="G638" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>48</v>
       </c>
@@ -11503,11 +11503,11 @@
       <c r="D639" t="s">
         <v>30</v>
       </c>
-      <c r="E639" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G639" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>48</v>
       </c>
@@ -11520,11 +11520,11 @@
       <c r="D640" t="s">
         <v>30</v>
       </c>
-      <c r="E640" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G640" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>48</v>
       </c>
@@ -11537,11 +11537,11 @@
       <c r="D641" t="s">
         <v>30</v>
       </c>
-      <c r="E641" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G641" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>48</v>
       </c>
@@ -11554,11 +11554,11 @@
       <c r="D642" t="s">
         <v>30</v>
       </c>
-      <c r="E642" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G642" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>48</v>
       </c>
@@ -11571,11 +11571,11 @@
       <c r="D643" t="s">
         <v>30</v>
       </c>
-      <c r="E643" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G643" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>48</v>
       </c>
@@ -11588,11 +11588,11 @@
       <c r="D644" t="s">
         <v>30</v>
       </c>
-      <c r="E644" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G644" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>48</v>
       </c>
@@ -11605,11 +11605,11 @@
       <c r="D645" t="s">
         <v>30</v>
       </c>
-      <c r="E645" s="1">
+      <c r="G645" s="1">
         <v>3760</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>48</v>
       </c>
@@ -11622,11 +11622,11 @@
       <c r="D646" t="s">
         <v>30</v>
       </c>
-      <c r="E646" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G646" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>48</v>
       </c>
@@ -11639,11 +11639,11 @@
       <c r="D647" t="s">
         <v>30</v>
       </c>
-      <c r="E647" s="1">
+      <c r="G647" s="1">
         <v>818</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>48</v>
       </c>
@@ -11656,11 +11656,11 @@
       <c r="D648" t="s">
         <v>30</v>
       </c>
-      <c r="E648" s="1">
+      <c r="G648" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>48</v>
       </c>
@@ -11673,11 +11673,11 @@
       <c r="D649" t="s">
         <v>30</v>
       </c>
-      <c r="E649" s="1">
+      <c r="G649" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>48</v>
       </c>
@@ -11690,11 +11690,11 @@
       <c r="D650" t="s">
         <v>30</v>
       </c>
-      <c r="E650" s="1">
+      <c r="G650" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>48</v>
       </c>
@@ -11707,11 +11707,11 @@
       <c r="D651" t="s">
         <v>30</v>
       </c>
-      <c r="E651" s="1">
+      <c r="G651" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>48</v>
       </c>
@@ -11724,11 +11724,11 @@
       <c r="D652" t="s">
         <v>30</v>
       </c>
-      <c r="E652" s="1">
+      <c r="G652" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>48</v>
       </c>
@@ -11741,11 +11741,11 @@
       <c r="D653" t="s">
         <v>30</v>
       </c>
-      <c r="E653" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G653" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>48</v>
       </c>
@@ -11758,11 +11758,11 @@
       <c r="D654" t="s">
         <v>30</v>
       </c>
-      <c r="E654" s="1">
+      <c r="G654" s="1">
         <v>860</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>48</v>
       </c>
@@ -11775,11 +11775,11 @@
       <c r="D655" t="s">
         <v>30</v>
       </c>
-      <c r="E655" s="1">
+      <c r="G655" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>48</v>
       </c>
@@ -11792,11 +11792,11 @@
       <c r="D656" t="s">
         <v>30</v>
       </c>
-      <c r="E656" s="1">
+      <c r="G656" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>48</v>
       </c>
@@ -11809,11 +11809,11 @@
       <c r="D657" t="s">
         <v>30</v>
       </c>
-      <c r="E657" s="1">
+      <c r="G657" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>48</v>
       </c>
@@ -11826,11 +11826,11 @@
       <c r="D658" t="s">
         <v>30</v>
       </c>
-      <c r="E658" s="1">
+      <c r="G658" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>48</v>
       </c>
@@ -11843,11 +11843,11 @@
       <c r="D659" t="s">
         <v>30</v>
       </c>
-      <c r="E659" s="1">
+      <c r="G659" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>48</v>
       </c>
@@ -11860,11 +11860,11 @@
       <c r="D660" t="s">
         <v>30</v>
       </c>
-      <c r="E660" s="1">
+      <c r="G660" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>48</v>
       </c>
@@ -11877,11 +11877,11 @@
       <c r="D661" t="s">
         <v>31</v>
       </c>
-      <c r="E661" s="1">
+      <c r="G661" s="1">
         <v>16.738845579698125</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>48</v>
       </c>
@@ -11894,11 +11894,11 @@
       <c r="D662" t="s">
         <v>31</v>
       </c>
-      <c r="E662" s="1">
+      <c r="G662" s="1">
         <v>9.338513849726322</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>48</v>
       </c>
@@ -11911,11 +11911,11 @@
       <c r="D663" t="s">
         <v>31</v>
       </c>
-      <c r="E663" s="1">
+      <c r="G663" s="1">
         <v>29.425128545364075</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>48</v>
       </c>
@@ -11928,11 +11928,11 @@
       <c r="D664" t="s">
         <v>31</v>
       </c>
-      <c r="E664" s="1">
+      <c r="G664" s="1">
         <v>16.915043954221264</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>48</v>
       </c>
@@ -11945,11 +11945,11 @@
       <c r="D665" t="s">
         <v>31</v>
       </c>
-      <c r="E665" s="1">
+      <c r="G665" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>48</v>
       </c>
@@ -11962,11 +11962,11 @@
       <c r="D666" t="s">
         <v>31</v>
       </c>
-      <c r="E666" s="1">
+      <c r="G666" s="1">
         <v>27.486946425609553</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>48</v>
       </c>
@@ -11979,11 +11979,11 @@
       <c r="D667" t="s">
         <v>31</v>
       </c>
-      <c r="E667" s="1">
+      <c r="G667" s="1">
         <v>33.830087908442529</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>48</v>
       </c>
@@ -11996,11 +11996,11 @@
       <c r="D668" t="s">
         <v>31</v>
       </c>
-      <c r="E668" s="1">
+      <c r="G668" s="1">
         <v>2063</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>48</v>
       </c>
@@ -12013,11 +12013,11 @@
       <c r="D669" t="s">
         <v>31</v>
       </c>
-      <c r="E669" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G669" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>48</v>
       </c>
@@ -12030,11 +12030,11 @@
       <c r="D670" t="s">
         <v>31</v>
       </c>
-      <c r="E670" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G670" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>48</v>
       </c>
@@ -12047,11 +12047,11 @@
       <c r="D671" t="s">
         <v>31</v>
       </c>
-      <c r="E671" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G671" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>48</v>
       </c>
@@ -12064,11 +12064,11 @@
       <c r="D672" t="s">
         <v>31</v>
       </c>
-      <c r="E672" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G672" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>48</v>
       </c>
@@ -12081,11 +12081,11 @@
       <c r="D673" t="s">
         <v>31</v>
       </c>
-      <c r="E673" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G673" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>48</v>
       </c>
@@ -12098,11 +12098,11 @@
       <c r="D674" t="s">
         <v>31</v>
       </c>
-      <c r="E674" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G674" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>48</v>
       </c>
@@ -12115,11 +12115,11 @@
       <c r="D675" t="s">
         <v>31</v>
       </c>
-      <c r="E675" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G675" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>48</v>
       </c>
@@ -12132,11 +12132,11 @@
       <c r="D676" t="s">
         <v>31</v>
       </c>
-      <c r="E676" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G676" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>48</v>
       </c>
@@ -12149,11 +12149,11 @@
       <c r="D677" t="s">
         <v>31</v>
       </c>
-      <c r="E677" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G677" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>48</v>
       </c>
@@ -12166,11 +12166,11 @@
       <c r="D678" t="s">
         <v>31</v>
       </c>
-      <c r="E678" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G678" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>48</v>
       </c>
@@ -12183,11 +12183,11 @@
       <c r="D679" t="s">
         <v>31</v>
       </c>
-      <c r="E679" s="1">
+      <c r="G679" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>48</v>
       </c>
@@ -12200,11 +12200,11 @@
       <c r="D680" t="s">
         <v>31</v>
       </c>
-      <c r="E680" s="1">
+      <c r="G680" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>48</v>
       </c>
@@ -12217,11 +12217,11 @@
       <c r="D681" t="s">
         <v>31</v>
       </c>
-      <c r="E681" s="1">
+      <c r="G681" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>48</v>
       </c>
@@ -12234,11 +12234,11 @@
       <c r="D682" t="s">
         <v>31</v>
       </c>
-      <c r="E682" s="1">
+      <c r="G682" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>48</v>
       </c>
@@ -12251,11 +12251,11 @@
       <c r="D683" t="s">
         <v>31</v>
       </c>
-      <c r="E683" s="1">
+      <c r="G683" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>48</v>
       </c>
@@ -12268,11 +12268,11 @@
       <c r="D684" t="s">
         <v>31</v>
       </c>
-      <c r="E684" s="1">
+      <c r="G684" s="1">
         <v>3164</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>48</v>
       </c>
@@ -12285,11 +12285,11 @@
       <c r="D685" t="s">
         <v>31</v>
       </c>
-      <c r="E685" s="1">
+      <c r="G685" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>48</v>
       </c>
@@ -12302,11 +12302,11 @@
       <c r="D686" t="s">
         <v>31</v>
       </c>
-      <c r="E686" s="1">
+      <c r="G686" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>48</v>
       </c>
@@ -12319,11 +12319,11 @@
       <c r="D687" t="s">
         <v>31</v>
       </c>
-      <c r="E687" s="1">
+      <c r="G687" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>48</v>
       </c>
@@ -12336,11 +12336,11 @@
       <c r="D688" t="s">
         <v>31</v>
       </c>
-      <c r="E688" s="1">
+      <c r="G688" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>48</v>
       </c>
@@ -12353,11 +12353,11 @@
       <c r="D689" t="s">
         <v>31</v>
       </c>
-      <c r="E689" s="1">
+      <c r="G689" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>48</v>
       </c>
@@ -12370,11 +12370,11 @@
       <c r="D690" t="s">
         <v>33</v>
       </c>
-      <c r="E690" s="1">
+      <c r="G690" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>48</v>
       </c>
@@ -12387,11 +12387,11 @@
       <c r="D691" t="s">
         <v>33</v>
       </c>
-      <c r="E691" s="1">
+      <c r="G691" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>48</v>
       </c>
@@ -12404,11 +12404,11 @@
       <c r="D692" t="s">
         <v>33</v>
       </c>
-      <c r="E692" s="1">
+      <c r="G692" s="1">
         <v>720</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>48</v>
       </c>
@@ -12421,11 +12421,11 @@
       <c r="D693" t="s">
         <v>33</v>
       </c>
-      <c r="E693" s="1">
+      <c r="G693" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>48</v>
       </c>
@@ -12438,11 +12438,11 @@
       <c r="D694" t="s">
         <v>33</v>
       </c>
-      <c r="E694" s="1">
+      <c r="G694" s="1">
         <v>466</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>48</v>
       </c>
@@ -12455,11 +12455,11 @@
       <c r="D695" t="s">
         <v>33</v>
       </c>
-      <c r="E695" s="1">
+      <c r="G695" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>48</v>
       </c>
@@ -12472,11 +12472,11 @@
       <c r="D696" t="s">
         <v>33</v>
       </c>
-      <c r="E696" s="1">
+      <c r="G696" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>48</v>
       </c>
@@ -12489,11 +12489,11 @@
       <c r="D697" t="s">
         <v>33</v>
       </c>
-      <c r="E697" s="1">
+      <c r="G697" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>48</v>
       </c>
@@ -12506,11 +12506,11 @@
       <c r="D698" t="s">
         <v>33</v>
       </c>
-      <c r="E698" s="1">
+      <c r="G698" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>48</v>
       </c>
@@ -12523,11 +12523,11 @@
       <c r="D699" t="s">
         <v>33</v>
       </c>
-      <c r="E699" s="1">
+      <c r="G699" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>48</v>
       </c>
@@ -12540,11 +12540,11 @@
       <c r="D700" t="s">
         <v>33</v>
       </c>
-      <c r="E700" s="1">
+      <c r="G700" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>48</v>
       </c>
@@ -12557,11 +12557,11 @@
       <c r="D701" t="s">
         <v>33</v>
       </c>
-      <c r="E701" s="1">
+      <c r="G701" s="1">
         <v>324</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>48</v>
       </c>
@@ -12574,11 +12574,11 @@
       <c r="D702" t="s">
         <v>33</v>
       </c>
-      <c r="E702" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G702" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>48</v>
       </c>
@@ -12591,11 +12591,11 @@
       <c r="D703" t="s">
         <v>33</v>
       </c>
-      <c r="E703" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G703" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>48</v>
       </c>
@@ -12608,11 +12608,11 @@
       <c r="D704" t="s">
         <v>33</v>
       </c>
-      <c r="E704" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G704" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>48</v>
       </c>
@@ -12625,11 +12625,11 @@
       <c r="D705" t="s">
         <v>33</v>
       </c>
-      <c r="E705" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G705" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>48</v>
       </c>
@@ -12642,11 +12642,11 @@
       <c r="D706" t="s">
         <v>33</v>
       </c>
-      <c r="E706" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G706" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>48</v>
       </c>
@@ -12659,11 +12659,11 @@
       <c r="D707" t="s">
         <v>33</v>
       </c>
-      <c r="E707" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G707" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>48</v>
       </c>
@@ -12676,11 +12676,11 @@
       <c r="D708" t="s">
         <v>33</v>
       </c>
-      <c r="E708" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G708" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>48</v>
       </c>
@@ -12693,11 +12693,11 @@
       <c r="D709" t="s">
         <v>33</v>
       </c>
-      <c r="E709" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G709" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>48</v>
       </c>
@@ -12710,11 +12710,11 @@
       <c r="D710" t="s">
         <v>33</v>
       </c>
-      <c r="E710" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G710" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>48</v>
       </c>
@@ -12727,11 +12727,11 @@
       <c r="D711" t="s">
         <v>33</v>
       </c>
-      <c r="E711" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G711" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>48</v>
       </c>
@@ -12744,11 +12744,11 @@
       <c r="D712" t="s">
         <v>33</v>
       </c>
-      <c r="E712" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G712" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>48</v>
       </c>
@@ -12761,11 +12761,11 @@
       <c r="D713" t="s">
         <v>33</v>
       </c>
-      <c r="E713" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G713" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>48</v>
       </c>
@@ -12778,11 +12778,11 @@
       <c r="D714" t="s">
         <v>33</v>
       </c>
-      <c r="E714" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G714" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>48</v>
       </c>
@@ -12795,11 +12795,11 @@
       <c r="D715" t="s">
         <v>33</v>
       </c>
-      <c r="E715" s="1">
+      <c r="G715" s="1">
         <v>598</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>48</v>
       </c>
@@ -12812,11 +12812,11 @@
       <c r="D716" t="s">
         <v>33</v>
       </c>
-      <c r="E716" s="1">
+      <c r="G716" s="1">
         <v>2236</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>48</v>
       </c>
@@ -12829,11 +12829,11 @@
       <c r="D717" t="s">
         <v>33</v>
       </c>
-      <c r="E717" s="1">
+      <c r="G717" s="1">
         <v>4.2761093679964155</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>48</v>
       </c>
@@ -12846,11 +12846,11 @@
       <c r="D718" t="s">
         <v>33</v>
       </c>
-      <c r="E718" s="1">
+      <c r="G718" s="1">
         <v>1641</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>48</v>
       </c>
@@ -12863,11 +12863,11 @@
       <c r="D719" t="s">
         <v>33</v>
       </c>
-      <c r="E719" s="1">
+      <c r="G719" s="1">
         <v>4.229941730165848</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>48</v>
       </c>
@@ -12880,11 +12880,11 @@
       <c r="D720" t="s">
         <v>33</v>
       </c>
-      <c r="E720" s="1">
+      <c r="G720" s="1">
         <v>1.2048408785298079</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>48</v>
       </c>
@@ -12897,11 +12897,11 @@
       <c r="D721" t="s">
         <v>33</v>
       </c>
-      <c r="E721" s="1">
+      <c r="G721" s="1">
         <v>44.32541461228152</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>48</v>
       </c>
@@ -12914,11 +12914,11 @@
       <c r="D722" t="s">
         <v>33</v>
       </c>
-      <c r="E722" s="1">
+      <c r="G722" s="1">
         <v>106.24114746750342</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>48</v>
       </c>
@@ -12931,11 +12931,11 @@
       <c r="D723" t="s">
         <v>33</v>
       </c>
-      <c r="E723" s="1">
+      <c r="G723" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>48</v>
       </c>
@@ -12948,11 +12948,11 @@
       <c r="D724" t="s">
         <v>33</v>
       </c>
-      <c r="E724" s="1">
+      <c r="G724" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>48</v>
       </c>
@@ -12965,11 +12965,11 @@
       <c r="D725" t="s">
         <v>33</v>
       </c>
-      <c r="E725" s="1">
+      <c r="G725" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>48</v>
       </c>
@@ -12982,11 +12982,11 @@
       <c r="D726" t="s">
         <v>33</v>
       </c>
-      <c r="E726" s="1">
+      <c r="G726" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>48</v>
       </c>
@@ -12999,7 +12999,7 @@
       <c r="D727" t="s">
         <v>33</v>
       </c>
-      <c r="E727" s="1">
+      <c r="G727" s="1">
         <v>86</v>
       </c>
     </row>

--- a/public/inventario.xlsx
+++ b/public/inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://somyl-my.sharepoint.com/personal/carlos_alegria_somyl_com/Documents/Escritorio/TCHFONSUR2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{8C765855-729A-42D5-8DB0-D65CF3CDEE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF9B8533-93DF-405F-AAB7-FFE77C06ECCE}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{8C765855-729A-42D5-8DB0-D65CF3CDEE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3B2F32-897E-4010-BC15-A35CFBD04546}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5E3BA87-039D-EC49-8A7D-F58DA0CE356F}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
@@ -43,7 +42,7 @@
     <definedName name="ENTEL">#REF!</definedName>
     <definedName name="Etapa">OFFSET(#REF!,1,0,COUNTA(#REF!)-COUNTIF(#REF!,"")+1,1)</definedName>
     <definedName name="FOA">#REF!</definedName>
-    <definedName name="FromOrganiz_1">_xlfn.ANCHORARRAY('[2]REGISTRAR ENTREGA'!$XDW$16)</definedName>
+    <definedName name="FromOrganiz_1">_xlfn.ANCHORARRAY('[1]REGISTRAR ENTREGA'!$XDW$16)</definedName>
     <definedName name="LosAndes">#REF!</definedName>
     <definedName name="LosAndes2">#REF!</definedName>
     <definedName name="MOVPTEDELSOL2" hidden="1">{#N/A,#N/A,FALSE,"flash-orig";#N/A,#N/A,FALSE,"eco-fin";#N/A,#N/A,FALSE,"usd";#N/A,#N/A,FALSE,"traffico";#N/A,#N/A,FALSE,"mercato";#N/A,#N/A,FALSE,"personale";#N/A,#N/A,FALSE,"FLASH1"}</definedName>
@@ -321,7 +320,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -381,7 +380,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -395,7 +394,23 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{284D6F51-16A3-0744-802B-E945D7733DF7}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{E6529948-017E-4E58-BE14-DCC312D814EC}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -409,34 +424,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="FON + FOT"/>
-      <sheetName val="Materiales Fot"/>
-      <sheetName val="STOCK SAP FOT"/>
-      <sheetName val="STOCK SAP FON"/>
-      <sheetName val="MOV MATERIAL"/>
-      <sheetName val="REBAJAS SAP"/>
-      <sheetName val="Materiales FON"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -471,21 +458,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}" name="Tabla1" displayName="Tabla1" ref="A1:I369" totalsRowShown="0">
-  <autoFilter ref="A1:I369" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}" name="Tabla1" displayName="Tabla1" ref="A1:I369">
+  <autoFilter ref="A1:I369" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Cable ADSS 48 fo con protección Roedor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
     <sortCondition descending="1" ref="I1:I12"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3F2C7C36-8BF1-CF4B-A402-FD444C42C96D}" name="proyecto"/>
+    <tableColumn id="1" xr3:uid="{3F2C7C36-8BF1-CF4B-A402-FD444C42C96D}" name="proyecto" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{71F2E366-DACD-B741-9790-911966904ECD}" name="Catalogo"/>
     <tableColumn id="3" xr3:uid="{9FD1487E-7DC8-2B44-9780-982ED130D1E0}" name="Catalogo - Descripcion"/>
     <tableColumn id="4" xr3:uid="{30080B60-849C-0E46-BDE0-601061572ABC}" name="Triot"/>
-    <tableColumn id="5" xr3:uid="{CE0E9EF8-6AAF-C84C-BFCA-6FDA5BD4AB8B}" name="INSTALADO" dataCellStyle="Millares [0]"/>
-    <tableColumn id="6" xr3:uid="{7EE575E5-D861-E74B-BD2B-6BEF28458ABF}" name="DESPUNTE" dataCellStyle="Millares [0]"/>
-    <tableColumn id="7" xr3:uid="{7DA24442-29DB-5A42-B0DF-4A7538D89031}" name="REBAJADO" dataCellStyle="Millares [0]"/>
-    <tableColumn id="9" xr3:uid="{3A51F090-AA1A-834B-8B9D-8E0B73154903}" name="INGRESOS SAP" dataCellStyle="Millares [0]"/>
-    <tableColumn id="8" xr3:uid="{1E37ADC9-A500-7A4D-A45C-E8A95157FFAA}" name="STOCK  REAL " dataCellStyle="Millares [0]"/>
+    <tableColumn id="5" xr3:uid="{CE0E9EF8-6AAF-C84C-BFCA-6FDA5BD4AB8B}" name="INSTALADO" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Millares [0]"/>
+    <tableColumn id="6" xr3:uid="{7EE575E5-D861-E74B-BD2B-6BEF28458ABF}" name="DESPUNTE" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Millares [0]"/>
+    <tableColumn id="7" xr3:uid="{7DA24442-29DB-5A42-B0DF-4A7538D89031}" name="REBAJADO" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Millares [0]"/>
+    <tableColumn id="9" xr3:uid="{3A51F090-AA1A-834B-8B9D-8E0B73154903}" name="INGRESOS SAP" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Millares [0]"/>
+    <tableColumn id="8" xr3:uid="{1E37ADC9-A500-7A4D-A45C-E8A95157FFAA}" name="STOCK  REAL " totalsRowFunction="sum" totalsRowDxfId="4" dataCellStyle="Millares [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -810,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDE4FD5-9416-9D4B-BB0A-04D695859D33}">
   <dimension ref="A1:I369"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -869,7 +862,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -883,7 +876,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -897,7 +890,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -911,7 +904,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -925,7 +918,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -939,7 +932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -953,7 +946,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -967,7 +960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -981,7 +974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -995,7 +988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1022,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1062,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1165,7 @@
         <v>24147</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1188,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1208,7 @@
         <v>407.09824970828475</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1245,7 @@
         <v>5.6541423570595102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1305,7 @@
         <v>26.857176196032672</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1325,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1345,7 @@
         <v>2.8270711785297551</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1365,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1385,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1405,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1425,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1452,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1508,7 @@
         <v>34733</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1531,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1551,7 @@
         <v>504.31741472172354</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1625,7 @@
         <v>29.609545182525434</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1652,7 +1645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1665,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1692,7 +1685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1712,7 +1705,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1725,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +1745,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1772,7 +1765,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1812,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1848,7 @@
         <v>39113</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +1871,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1891,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +1965,7 @@
         <v>29.724410003522369</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1992,7 +1985,7 @@
         <v>59.448820007044738</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2012,7 +2005,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2025,7 @@
         <v>158.12574850299401</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2045,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2085,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2105,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2132,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2188,7 @@
         <v>32620</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2211,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2238,7 +2231,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2258,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2332,7 +2325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2345,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2372,7 +2365,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2405,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2452,7 +2445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +2465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2535,7 +2528,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2551,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2578,7 +2571,7 @@
         <v>33.830087908442529</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2652,7 +2645,7 @@
         <v>16.738845579698125</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>41.338513849726326</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2685,7 @@
         <v>116.42512854536407</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2705,7 @@
         <v>90.486946425609545</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2732,7 +2725,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2752,7 +2745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2772,7 +2765,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2832,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +2868,7 @@
         <v>22919</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -2898,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -2918,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -2955,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -2992,7 +2985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3025,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -3072,7 +3065,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3085,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -3112,7 +3105,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3125,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +3165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3208,7 @@
         <v>56475</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -3238,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -3258,7 +3251,7 @@
         <v>912.24114746750342</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -3278,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -3335,7 +3328,7 @@
         <v>22.276109367996416</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -3355,7 +3348,7 @@
         <v>99.229941730165848</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -3375,7 +3368,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -3395,7 +3388,7 @@
         <v>510.32541461228152</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -3415,7 +3408,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3435,7 +3428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3495,7 +3488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3515,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -3558,7 +3551,7 @@
         <v>23619</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -3581,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -3601,7 +3594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -3621,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3641,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -3658,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -3678,7 +3671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3698,7 +3691,7 @@
         <v>39.135501687634246</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>60.152715556919304</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3738,7 +3731,7 @@
         <v>191.32911936176743</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3758,7 +3751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3778,7 +3771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -3798,7 +3791,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3838,7 +3831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3894,7 @@
         <v>31853</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3924,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>462.89554950045419</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3964,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3984,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -4001,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4021,7 +4014,7 @@
         <v>23.14477747502271</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4041,7 +4034,7 @@
         <v>48.21828640629731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4061,7 +4054,7 @@
         <v>89.686012715713005</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4081,7 +4074,7 @@
         <v>432.03584620042392</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4101,7 +4094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4121,7 +4114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4141,7 +4134,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4161,7 +4154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4181,7 +4174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4201,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4244,7 +4237,7 @@
         <v>15616</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4267,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4287,7 +4280,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4307,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4344,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4364,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4384,7 +4377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4404,7 +4397,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4424,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4444,7 +4437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4484,7 +4477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4504,7 +4497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4524,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4544,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +4580,7 @@
         <v>27093</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4610,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4630,7 +4623,7 @@
         <v>389.50625233994754</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4650,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4670,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4687,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4707,7 +4700,7 @@
         <v>145.05050542867838</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4727,7 +4720,7 @@
         <v>47.6739423436915</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4747,7 +4740,7 @@
         <v>68.975065518532375</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4767,7 +4760,7 @@
         <v>247.49876450767502</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4787,7 +4780,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4807,7 +4800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4827,7 +4820,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4847,7 +4840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4867,7 +4860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4930,7 +4923,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4953,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4973,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4993,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -5013,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -5030,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -5050,7 +5043,7 @@
         <v>26.2362168182662</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -5070,7 +5063,7 @@
         <v>14.526266938927048</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -5090,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5110,7 +5103,7 @@
         <v>53.806478559495083</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -5130,7 +5123,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5150,7 +5143,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -5170,7 +5163,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -5190,7 +5183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5210,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -5230,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -5273,7 +5266,7 @@
         <v>24131</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -5296,7 +5289,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -5316,7 +5309,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -5336,7 +5329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5356,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -5373,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5393,7 +5386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -5413,7 +5406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5433,7 +5426,7 @@
         <v>198.57679207920791</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -5453,7 +5446,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -5473,7 +5466,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -5493,7 +5486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -5513,7 +5506,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5533,7 +5526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -5553,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -5616,7 +5609,7 @@
         <v>21444</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -5639,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5652,7 @@
         <v>319.23249830737979</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -5679,7 +5672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -5699,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -5736,7 +5729,7 @@
         <v>32.514421123899794</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -5756,7 +5749,7 @@
         <v>38.426134055517934</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5776,7 +5769,7 @@
         <v>313.32078537576166</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -5796,7 +5789,7 @@
         <v>37.687169939065669</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -5816,7 +5809,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5836,7 +5829,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -5856,7 +5849,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -5876,7 +5869,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -5896,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -5916,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -5959,7 +5952,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -5982,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -6002,7 +5995,7 @@
         <v>213.39035882566145</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -6022,7 +6015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -6042,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -6059,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -6079,7 +6072,7 @@
         <v>62.683417905038056</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6099,7 +6092,7 @@
         <v>29.785737586081911</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -6119,7 +6112,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -6139,7 +6132,7 @@
         <v>72.611997100398696</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6159,7 +6152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -6179,7 +6172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -6199,7 +6192,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -6219,7 +6212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -6239,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -6259,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6302,7 +6295,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -6325,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -6342,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -6362,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -6382,7 +6375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -6399,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -6419,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6439,7 +6432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6459,7 +6452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -6479,7 +6472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -6499,7 +6492,7 @@
         <v>339.15000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -6519,7 +6512,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -6539,7 +6532,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -6579,7 +6572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6596,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -6616,7 +6609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -6659,7 +6652,7 @@
         <v>19226</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -6679,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -6696,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -6716,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -6736,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6753,7 +6746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6773,7 +6766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -6793,7 +6786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -6813,7 +6806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -6902,7 +6895,7 @@
         <v>10864</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -6922,7 +6915,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>43</v>
       </c>
@@ -6942,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>43</v>
       </c>
@@ -6982,7 +6975,7 @@
         <v>188000</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>43</v>
       </c>
@@ -7002,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>43</v>
       </c>
@@ -7022,7 +7015,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>43</v>
       </c>
@@ -7042,7 +7035,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -7062,7 +7055,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>43</v>
       </c>
@@ -7082,7 +7075,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>43</v>
       </c>
@@ -7102,7 +7095,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>43</v>
       </c>
@@ -7122,7 +7115,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>43</v>
       </c>
@@ -7142,7 +7135,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>43</v>
       </c>
@@ -7162,7 +7155,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>43</v>
       </c>
@@ -7182,7 +7175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>43</v>
       </c>
@@ -7202,7 +7195,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>43</v>
       </c>
@@ -7222,7 +7215,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>43</v>
       </c>
@@ -7242,7 +7235,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>43</v>
       </c>
@@ -7262,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>43</v>
       </c>
@@ -7302,7 +7295,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>43</v>
       </c>
@@ -7322,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>43</v>
       </c>
@@ -7342,7 +7335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>43</v>
       </c>
@@ -7362,7 +7355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>43</v>
       </c>
@@ -7382,7 +7375,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>43</v>
       </c>
@@ -7402,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>43</v>
       </c>
@@ -7422,7 +7415,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>43</v>
       </c>
@@ -7442,7 +7435,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>43</v>
       </c>
@@ -7462,7 +7455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>43</v>
       </c>
@@ -7482,7 +7475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>43</v>
       </c>
@@ -7502,7 +7495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>43</v>
       </c>
@@ -7522,7 +7515,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>43</v>
       </c>
@@ -7542,7 +7535,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>43</v>
       </c>
@@ -7562,7 +7555,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>43</v>
       </c>
@@ -7582,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>43</v>
       </c>
@@ -7622,7 +7615,7 @@
         <v>81749</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>43</v>
       </c>
@@ -7642,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>43</v>
       </c>
@@ -7662,7 +7655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>43</v>
       </c>
@@ -7682,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>43</v>
       </c>
@@ -7702,7 +7695,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>43</v>
       </c>
@@ -7722,7 +7715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>43</v>
       </c>
@@ -7742,7 +7735,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>43</v>
       </c>
@@ -7762,7 +7755,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>43</v>
       </c>
@@ -7782,7 +7775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>43</v>
       </c>
@@ -7802,7 +7795,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>43</v>
       </c>
@@ -7822,7 +7815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>43</v>
       </c>
@@ -7842,7 +7835,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>43</v>
       </c>
@@ -7862,7 +7855,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>43</v>
       </c>
@@ -7882,7 +7875,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>43</v>
       </c>
@@ -7902,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>43</v>
       </c>
@@ -7942,7 +7935,7 @@
         <v>23035.200000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>43</v>
       </c>
@@ -7962,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>43</v>
       </c>
@@ -7982,7 +7975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>43</v>
       </c>
@@ -8002,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>43</v>
       </c>
@@ -8022,7 +8015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>43</v>
       </c>
@@ -8042,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>43</v>
       </c>
@@ -8062,7 +8055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>43</v>
       </c>
@@ -8082,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>43</v>
       </c>
@@ -8102,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>43</v>
       </c>
@@ -8122,7 +8115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>43</v>
       </c>
@@ -8142,7 +8135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -8162,7 +8155,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>43</v>
       </c>

--- a/public/inventario.xlsx
+++ b/public/inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://somyl-my.sharepoint.com/personal/carlos_alegria_somyl_com/Documents/Escritorio/TCHFONSUR2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{8C765855-729A-42D5-8DB0-D65CF3CDEE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D3B2F32-897E-4010-BC15-A35CFBD04546}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{8C765855-729A-42D5-8DB0-D65CF3CDEE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A6F072-0F96-4647-9733-27552FAAB1F9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5E3BA87-039D-EC49-8A7D-F58DA0CE356F}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="74">
   <si>
     <t>proyecto</t>
   </si>
@@ -313,6 +313,24 @@
   <si>
     <t>CABECERA 24 FO MODULO 12 PROYECTO FON            </t>
   </si>
+  <si>
+    <t>PREFORMADO DE PASO CABLE SPAN 800M</t>
+  </si>
+  <si>
+    <t>PREFORMADO DE RETENCIÓN CABLE SPAN 800M</t>
+  </si>
+  <si>
+    <t>KIT Retención D.13,6mm 250m span 300m</t>
+  </si>
+  <si>
+    <t>KIT suspensión D.13,6mm 120m span 400m</t>
+  </si>
+  <si>
+    <t>AMORTIGUADOR CABLE SPAN 800 M UN</t>
+  </si>
+  <si>
+    <t>ADSS 48 SPAN800 ANTI ROEDOR ANTITRACKING</t>
+  </si>
 </sst>
 </file>
 
@@ -458,14 +476,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}" name="Tabla1" displayName="Tabla1" ref="A1:I369">
-  <autoFilter ref="A1:I369" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Cable ADSS 48 fo con protección Roedor"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}" name="Tabla1" displayName="Tabla1" ref="A1:I406">
+  <autoFilter ref="A1:I406" xr:uid="{1176CDB4-EFBA-DA4B-A72F-1541659715EC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
     <sortCondition descending="1" ref="I1:I12"/>
   </sortState>
@@ -801,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDE4FD5-9416-9D4B-BB0A-04D695859D33}">
-  <dimension ref="A1:I369"/>
+  <dimension ref="A1:I406"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D258" sqref="D258"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -862,7 +874,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -876,7 +888,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -890,7 +902,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -904,7 +916,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -918,7 +930,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -932,7 +944,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -946,7 +958,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -960,7 +972,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -974,7 +986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>24147</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1220,7 @@
         <v>407.09824970828475</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>5.6541423570595102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1305,7 +1317,7 @@
         <v>26.857176196032672</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>2.8270711785297551</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1417,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>34733</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>504.31741472172354</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>29.609545182525434</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>39113</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>29.724410003522369</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +1997,7 @@
         <v>59.448820007044738</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>158.12574850299401</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +2077,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2117,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>32620</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>4818</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2231,7 +2243,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2437,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2457,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2465,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>33.830087908442529</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>16.738845579698125</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2665,7 +2677,7 @@
         <v>41.338513849726326</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>116.42512854536407</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2705,7 +2717,7 @@
         <v>90.486946425609545</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>22919</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -3065,7 +3077,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>56475</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>912.24114746750342</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -3271,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -3328,7 +3340,7 @@
         <v>22.276109367996416</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -3348,7 +3360,7 @@
         <v>99.229941730165848</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3400,7 @@
         <v>510.32541461228152</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3428,7 +3440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3468,7 +3480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>23619</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -3574,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -3594,7 +3606,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3634,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>39.135501687634246</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>60.152715556919304</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3743,7 @@
         <v>191.32911936176743</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -3791,7 +3803,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3831,7 +3843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>31853</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>462.89554950045419</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4014,7 +4026,7 @@
         <v>23.14477747502271</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4034,7 +4046,7 @@
         <v>48.21828640629731</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4054,7 +4066,7 @@
         <v>89.686012715713005</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4074,7 +4086,7 @@
         <v>432.03584620042392</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4094,7 +4106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4114,7 +4126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4134,7 +4146,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4154,7 +4166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4237,7 +4249,7 @@
         <v>15616</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4260,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4280,7 +4292,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4300,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4477,7 +4489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4580,7 +4592,7 @@
         <v>27093</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4603,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4623,7 +4635,7 @@
         <v>389.50625233994754</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4663,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4700,7 +4712,7 @@
         <v>145.05050542867838</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4732,7 @@
         <v>47.6739423436915</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4740,7 +4752,7 @@
         <v>68.975065518532375</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4760,7 +4772,7 @@
         <v>247.49876450767502</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4780,7 +4792,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4800,7 +4812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4820,7 +4832,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +4852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -4880,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4923,7 +4935,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4946,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4966,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4986,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -5023,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5055,7 @@
         <v>26.2362168182662</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -5063,7 +5075,7 @@
         <v>14.526266938927048</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5103,7 +5115,7 @@
         <v>53.806478559495083</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -5123,7 +5135,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5143,7 +5155,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -5163,7 +5175,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -5266,7 +5278,7 @@
         <v>24131</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -5289,7 +5301,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -5309,7 +5321,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -5329,7 +5341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5349,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -5366,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5386,7 +5398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -5406,7 +5418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5426,7 +5438,7 @@
         <v>198.57679207920791</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -5446,7 +5458,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -5466,7 +5478,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -5486,7 +5498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -5506,7 +5518,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -5546,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -5566,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -5609,7 +5621,7 @@
         <v>21444</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -5632,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -5652,7 +5664,7 @@
         <v>319.23249830737979</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +5684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -5709,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -5729,7 +5741,7 @@
         <v>32.514421123899794</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +5761,7 @@
         <v>38.426134055517934</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>313.32078537576166</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -5789,7 +5801,7 @@
         <v>37.687169939065669</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -5809,7 +5821,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>4</v>
       </c>
@@ -5829,7 +5841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -5849,7 +5861,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>4</v>
       </c>
@@ -5869,7 +5881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -5889,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -5909,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -5952,7 +5964,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -5995,7 +6007,7 @@
         <v>213.39035882566145</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -6015,7 +6027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>4</v>
       </c>
@@ -6035,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>4</v>
       </c>
@@ -6072,7 +6084,7 @@
         <v>62.683417905038056</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -6092,7 +6104,7 @@
         <v>29.785737586081911</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -6112,7 +6124,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -6132,7 +6144,7 @@
         <v>72.611997100398696</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>4</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -6172,7 +6184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -6192,7 +6204,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -6212,7 +6224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>4</v>
       </c>
@@ -6232,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>4</v>
       </c>
@@ -6252,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -6295,7 +6307,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>4</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -6335,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>4</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -6375,7 +6387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -6392,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -6412,7 +6424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -6452,7 +6464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -6492,7 +6504,7 @@
         <v>339.15000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -6512,7 +6524,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -6572,7 +6584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6589,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -6609,7 +6621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -6652,7 +6664,7 @@
         <v>19226</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -6709,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -6729,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6746,7 +6758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6766,7 +6778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -6786,7 +6798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -6806,7 +6818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -6872,7 +6884,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -6895,7 +6907,7 @@
         <v>10864</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -6911,11 +6923,8 @@
       <c r="E306" s="1">
         <v>430</v>
       </c>
-      <c r="H306" s="1">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>43</v>
       </c>
@@ -6931,11 +6940,8 @@
       <c r="E307" s="1">
         <v>0</v>
       </c>
-      <c r="H307" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>43</v>
       </c>
@@ -6951,11 +6957,8 @@
       <c r="E308" s="1">
         <v>2</v>
       </c>
-      <c r="H308" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>43</v>
       </c>
@@ -6971,11 +6974,8 @@
       <c r="E309" s="1">
         <v>81749</v>
       </c>
-      <c r="H309" s="1">
-        <v>188000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>43</v>
       </c>
@@ -6991,11 +6991,8 @@
       <c r="E310" s="1">
         <v>0</v>
       </c>
-      <c r="H310" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>43</v>
       </c>
@@ -7011,11 +7008,8 @@
       <c r="E311" s="1">
         <v>19</v>
       </c>
-      <c r="H311" s="1">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>43</v>
       </c>
@@ -7031,11 +7025,8 @@
       <c r="E312" s="1">
         <v>183</v>
       </c>
-      <c r="H312" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -7051,11 +7042,8 @@
       <c r="E313" s="1">
         <v>138</v>
       </c>
-      <c r="H313" s="1">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>43</v>
       </c>
@@ -7071,11 +7059,8 @@
       <c r="E314" s="1">
         <v>24</v>
       </c>
-      <c r="H314" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>43</v>
       </c>
@@ -7091,11 +7076,8 @@
       <c r="E315" s="1">
         <v>151</v>
       </c>
-      <c r="H315" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>43</v>
       </c>
@@ -7111,11 +7093,8 @@
       <c r="E316" s="1">
         <v>546</v>
       </c>
-      <c r="H316" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>43</v>
       </c>
@@ -7131,11 +7110,8 @@
       <c r="E317" s="1">
         <v>24</v>
       </c>
-      <c r="H317" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>43</v>
       </c>
@@ -7151,11 +7127,8 @@
       <c r="E318" s="1">
         <v>130</v>
       </c>
-      <c r="H318" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>43</v>
       </c>
@@ -7171,11 +7144,8 @@
       <c r="E319" s="1">
         <v>19</v>
       </c>
-      <c r="H319" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>43</v>
       </c>
@@ -7191,11 +7161,8 @@
       <c r="E320" s="1">
         <v>603</v>
       </c>
-      <c r="H320" s="1">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>43</v>
       </c>
@@ -7211,11 +7178,8 @@
       <c r="E321" s="1">
         <v>768</v>
       </c>
-      <c r="H321" s="1">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>43</v>
       </c>
@@ -7231,11 +7195,8 @@
       <c r="E322" s="1">
         <v>360</v>
       </c>
-      <c r="H322" s="1">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>43</v>
       </c>
@@ -7251,11 +7212,8 @@
       <c r="E323" s="1">
         <v>0</v>
       </c>
-      <c r="H323" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>43</v>
       </c>
@@ -7271,11 +7229,8 @@
       <c r="E324" s="1">
         <v>2</v>
       </c>
-      <c r="H324" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>43</v>
       </c>
@@ -7291,11 +7246,8 @@
       <c r="E325" s="1">
         <v>34999</v>
       </c>
-      <c r="H325" s="1">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>43</v>
       </c>
@@ -7311,11 +7263,8 @@
       <c r="E326" s="1">
         <v>0</v>
       </c>
-      <c r="H326" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>43</v>
       </c>
@@ -7331,11 +7280,8 @@
       <c r="E327" s="1">
         <v>12</v>
       </c>
-      <c r="H327" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>43</v>
       </c>
@@ -7351,11 +7297,8 @@
       <c r="E328" s="1">
         <v>13</v>
       </c>
-      <c r="H328" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>43</v>
       </c>
@@ -7371,11 +7314,8 @@
       <c r="E329" s="1">
         <v>98</v>
       </c>
-      <c r="H329" s="1">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>43</v>
       </c>
@@ -7391,11 +7331,8 @@
       <c r="E330" s="1">
         <v>9</v>
       </c>
-      <c r="H330" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>43</v>
       </c>
@@ -7411,11 +7348,8 @@
       <c r="E331" s="1">
         <v>25</v>
       </c>
-      <c r="H331" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>43</v>
       </c>
@@ -7431,11 +7365,8 @@
       <c r="E332" s="1">
         <v>231</v>
       </c>
-      <c r="H332" s="1">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>43</v>
       </c>
@@ -7451,11 +7382,8 @@
       <c r="E333" s="1">
         <v>2</v>
       </c>
-      <c r="H333" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>43</v>
       </c>
@@ -7471,11 +7399,8 @@
       <c r="E334" s="1">
         <v>4</v>
       </c>
-      <c r="H334" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>43</v>
       </c>
@@ -7491,11 +7416,8 @@
       <c r="E335" s="1">
         <v>11</v>
       </c>
-      <c r="H335" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>43</v>
       </c>
@@ -7511,11 +7433,8 @@
       <c r="E336" s="1">
         <v>289</v>
       </c>
-      <c r="H336" s="1">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>43</v>
       </c>
@@ -7531,11 +7450,8 @@
       <c r="E337" s="1">
         <v>528</v>
       </c>
-      <c r="H337" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>43</v>
       </c>
@@ -7555,7 +7471,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>43</v>
       </c>
@@ -7575,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>43</v>
       </c>
@@ -7595,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>43</v>
       </c>
@@ -7615,7 +7531,7 @@
         <v>81749</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>43</v>
       </c>
@@ -7635,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>43</v>
       </c>
@@ -7655,7 +7571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>43</v>
       </c>
@@ -7675,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>43</v>
       </c>
@@ -7695,7 +7611,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>43</v>
       </c>
@@ -7715,7 +7631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>43</v>
       </c>
@@ -7735,7 +7651,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>43</v>
       </c>
@@ -7755,7 +7671,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>43</v>
       </c>
@@ -7775,7 +7691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>43</v>
       </c>
@@ -7795,7 +7711,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>43</v>
       </c>
@@ -7815,7 +7731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>43</v>
       </c>
@@ -7835,7 +7751,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>43</v>
       </c>
@@ -7855,7 +7771,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>43</v>
       </c>
@@ -7875,7 +7791,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>43</v>
       </c>
@@ -7895,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>43</v>
       </c>
@@ -7935,7 +7851,7 @@
         <v>23035.200000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>43</v>
       </c>
@@ -7955,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>43</v>
       </c>
@@ -7975,7 +7891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>43</v>
       </c>
@@ -7995,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>43</v>
       </c>
@@ -8015,7 +7931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>43</v>
       </c>
@@ -8035,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>43</v>
       </c>
@@ -8055,7 +7971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>43</v>
       </c>
@@ -8075,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>43</v>
       </c>
@@ -8095,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>43</v>
       </c>
@@ -8115,7 +8031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>43</v>
       </c>
@@ -8135,7 +8051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -8155,7 +8071,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>43</v>
       </c>
@@ -8173,6 +8089,524 @@
       </c>
       <c r="G369" s="1">
         <v>1248</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>43</v>
+      </c>
+      <c r="B370">
+        <v>10302520211</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="H370" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>43</v>
+      </c>
+      <c r="B371">
+        <v>10302520212</v>
+      </c>
+      <c r="C371" t="s">
+        <v>23</v>
+      </c>
+      <c r="H371" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>43</v>
+      </c>
+      <c r="B372">
+        <v>10302520213</v>
+      </c>
+      <c r="C372" t="s">
+        <v>24</v>
+      </c>
+      <c r="H372" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>43</v>
+      </c>
+      <c r="B373">
+        <v>10302520214</v>
+      </c>
+      <c r="C373" t="s">
+        <v>25</v>
+      </c>
+      <c r="H373" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>43</v>
+      </c>
+      <c r="B374">
+        <v>10302530371</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="H374" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>43</v>
+      </c>
+      <c r="B375">
+        <v>10302530374</v>
+      </c>
+      <c r="C375" t="s">
+        <v>29</v>
+      </c>
+      <c r="H375" s="1">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>43</v>
+      </c>
+      <c r="B376">
+        <v>10302610053</v>
+      </c>
+      <c r="C376" t="s">
+        <v>35</v>
+      </c>
+      <c r="H376" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>43</v>
+      </c>
+      <c r="B377">
+        <v>10303640049</v>
+      </c>
+      <c r="C377" t="s">
+        <v>39</v>
+      </c>
+      <c r="H377" s="1">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>43</v>
+      </c>
+      <c r="B378">
+        <v>10303640050</v>
+      </c>
+      <c r="C378" t="s">
+        <v>40</v>
+      </c>
+      <c r="H378" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>43</v>
+      </c>
+      <c r="B379">
+        <v>10303640051</v>
+      </c>
+      <c r="C379" t="s">
+        <v>41</v>
+      </c>
+      <c r="H379" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>43</v>
+      </c>
+      <c r="B380">
+        <v>10303640052</v>
+      </c>
+      <c r="C380" t="s">
+        <v>42</v>
+      </c>
+      <c r="H380" s="1">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>43</v>
+      </c>
+      <c r="B381">
+        <v>10302180089</v>
+      </c>
+      <c r="C381" t="s">
+        <v>68</v>
+      </c>
+      <c r="H381" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>43</v>
+      </c>
+      <c r="B382">
+        <v>10302180090</v>
+      </c>
+      <c r="C382" t="s">
+        <v>69</v>
+      </c>
+      <c r="H382" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>43</v>
+      </c>
+      <c r="B383">
+        <v>10302520223</v>
+      </c>
+      <c r="C383" t="s">
+        <v>70</v>
+      </c>
+      <c r="H383" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>43</v>
+      </c>
+      <c r="B384">
+        <v>10302520224</v>
+      </c>
+      <c r="C384" t="s">
+        <v>71</v>
+      </c>
+      <c r="H384" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>43</v>
+      </c>
+      <c r="B385">
+        <v>10302530380</v>
+      </c>
+      <c r="C385" t="s">
+        <v>72</v>
+      </c>
+      <c r="H385" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>43</v>
+      </c>
+      <c r="B386">
+        <v>10302530381</v>
+      </c>
+      <c r="C386" t="s">
+        <v>73</v>
+      </c>
+      <c r="H386" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>43</v>
+      </c>
+      <c r="B387">
+        <v>10302610579</v>
+      </c>
+      <c r="C387" t="s">
+        <v>38</v>
+      </c>
+      <c r="H387" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B388">
+        <v>10302520211</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="H388" s="1">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B389">
+        <v>10302520212</v>
+      </c>
+      <c r="C389" t="s">
+        <v>23</v>
+      </c>
+      <c r="H389" s="1">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B390">
+        <v>10302520213</v>
+      </c>
+      <c r="C390" t="s">
+        <v>24</v>
+      </c>
+      <c r="H390" s="1">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B391">
+        <v>10302520214</v>
+      </c>
+      <c r="C391" t="s">
+        <v>25</v>
+      </c>
+      <c r="H391" s="1">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B392">
+        <v>10302520215</v>
+      </c>
+      <c r="C392" t="s">
+        <v>26</v>
+      </c>
+      <c r="H392" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393">
+        <v>10302520217</v>
+      </c>
+      <c r="C393" t="s">
+        <v>27</v>
+      </c>
+      <c r="H393" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394">
+        <v>10302530371</v>
+      </c>
+      <c r="C394" t="s">
+        <v>28</v>
+      </c>
+      <c r="H394" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395">
+        <v>10302530374</v>
+      </c>
+      <c r="C395" t="s">
+        <v>29</v>
+      </c>
+      <c r="H395" s="1">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B396">
+        <v>10302530375</v>
+      </c>
+      <c r="C396" t="s">
+        <v>33</v>
+      </c>
+      <c r="H396" s="1">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B397">
+        <v>10302610053</v>
+      </c>
+      <c r="C397" t="s">
+        <v>35</v>
+      </c>
+      <c r="H397" s="1">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398">
+        <v>10302610577</v>
+      </c>
+      <c r="C398" t="s">
+        <v>36</v>
+      </c>
+      <c r="H398" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399">
+        <v>10302610578</v>
+      </c>
+      <c r="C399" t="s">
+        <v>37</v>
+      </c>
+      <c r="H399" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400">
+        <v>10303640049</v>
+      </c>
+      <c r="C400" t="s">
+        <v>39</v>
+      </c>
+      <c r="H400" s="1">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401">
+        <v>10303640050</v>
+      </c>
+      <c r="C401" t="s">
+        <v>40</v>
+      </c>
+      <c r="H401" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402">
+        <v>10303640051</v>
+      </c>
+      <c r="C402" t="s">
+        <v>41</v>
+      </c>
+      <c r="H402" s="1">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403">
+        <v>10303640052</v>
+      </c>
+      <c r="C403" t="s">
+        <v>42</v>
+      </c>
+      <c r="H403" s="1">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B404">
+        <v>10302520223</v>
+      </c>
+      <c r="C404" t="s">
+        <v>70</v>
+      </c>
+      <c r="H404" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405">
+        <v>10302520224</v>
+      </c>
+      <c r="C405" t="s">
+        <v>71</v>
+      </c>
+      <c r="H405" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406">
+        <v>10302610579</v>
+      </c>
+      <c r="C406" t="s">
+        <v>38</v>
+      </c>
+      <c r="H406" s="1">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
